--- a/BackTest/2019-10-29 BackTest WTC.xlsx
+++ b/BackTest/2019-10-29 BackTest WTC.xlsx
@@ -6051,17 +6051,13 @@
         <v>885.05</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>873</v>
-      </c>
-      <c r="K162" t="n">
-        <v>873</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
@@ -6090,22 +6086,14 @@
         <v>883.55</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>871</v>
-      </c>
-      <c r="K163" t="n">
-        <v>873</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6133,151 +6121,131 @@
         <v>882</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>871</v>
-      </c>
-      <c r="K164" t="n">
-        <v>873</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>869</v>
+      </c>
+      <c r="C165" t="n">
+        <v>872</v>
+      </c>
+      <c r="D165" t="n">
+        <v>872</v>
+      </c>
+      <c r="E165" t="n">
+        <v>869</v>
+      </c>
+      <c r="F165" t="n">
+        <v>59.9213</v>
+      </c>
+      <c r="G165" t="n">
+        <v>880.55</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>869</v>
+      </c>
+      <c r="C166" t="n">
+        <v>869</v>
+      </c>
+      <c r="D166" t="n">
+        <v>869</v>
+      </c>
+      <c r="E166" t="n">
+        <v>869</v>
+      </c>
+      <c r="F166" t="n">
+        <v>226.7573</v>
+      </c>
+      <c r="G166" t="n">
+        <v>878.9</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>872</v>
+      </c>
+      <c r="K166" t="n">
+        <v>872</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>870</v>
+      </c>
+      <c r="C167" t="n">
+        <v>872</v>
+      </c>
+      <c r="D167" t="n">
+        <v>872</v>
+      </c>
+      <c r="E167" t="n">
+        <v>870</v>
+      </c>
+      <c r="F167" t="n">
+        <v>988.071</v>
+      </c>
+      <c r="G167" t="n">
+        <v>877.4</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>869</v>
+      </c>
+      <c r="K167" t="n">
+        <v>872</v>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>869</v>
-      </c>
-      <c r="C165" t="n">
-        <v>872</v>
-      </c>
-      <c r="D165" t="n">
-        <v>872</v>
-      </c>
-      <c r="E165" t="n">
-        <v>869</v>
-      </c>
-      <c r="F165" t="n">
-        <v>59.9213</v>
-      </c>
-      <c r="G165" t="n">
-        <v>880.55</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>869</v>
-      </c>
-      <c r="K165" t="n">
-        <v>873</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>869</v>
-      </c>
-      <c r="C166" t="n">
-        <v>869</v>
-      </c>
-      <c r="D166" t="n">
-        <v>869</v>
-      </c>
-      <c r="E166" t="n">
-        <v>869</v>
-      </c>
-      <c r="F166" t="n">
-        <v>226.7573</v>
-      </c>
-      <c r="G166" t="n">
-        <v>878.9</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>869</v>
-      </c>
-      <c r="K166" t="n">
-        <v>873</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>870</v>
-      </c>
-      <c r="C167" t="n">
-        <v>872</v>
-      </c>
-      <c r="D167" t="n">
-        <v>872</v>
-      </c>
-      <c r="E167" t="n">
-        <v>870</v>
-      </c>
-      <c r="F167" t="n">
-        <v>988.071</v>
-      </c>
-      <c r="G167" t="n">
-        <v>877.4</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>870</v>
-      </c>
-      <c r="K167" t="n">
-        <v>873</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6311,10 +6279,10 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="K168" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6357,7 +6325,7 @@
         <v>870</v>
       </c>
       <c r="K169" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6397,10 +6365,10 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="K170" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6434,16 +6402,14 @@
         <v>872.6</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>876</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6477,16 +6443,14 @@
         <v>871.4</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>874</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6520,16 +6484,14 @@
         <v>871.55</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>873</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6563,16 +6525,14 @@
         <v>871.75</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>873</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6606,16 +6566,14 @@
         <v>871.7</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>873</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6658,7 +6616,7 @@
         <v>873</v>
       </c>
       <c r="K176" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6698,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K177" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6741,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K178" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6784,10 +6742,10 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="K179" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6830,7 +6788,7 @@
         <v>871</v>
       </c>
       <c r="K180" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -6873,7 +6831,7 @@
         <v>871</v>
       </c>
       <c r="K181" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -6916,7 +6874,7 @@
         <v>871</v>
       </c>
       <c r="K182" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -6956,10 +6914,10 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="K183" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -6993,16 +6951,14 @@
         <v>873.25</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>887</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7036,16 +6992,14 @@
         <v>873.7</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>878</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7079,16 +7033,14 @@
         <v>873.95</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>874</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7122,16 +7074,14 @@
         <v>874.1</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>873</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7165,16 +7115,14 @@
         <v>874.1</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>870</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7208,16 +7156,14 @@
         <v>874.25</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>873</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7251,16 +7197,14 @@
         <v>874.25</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>876</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7294,16 +7238,14 @@
         <v>873.8</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>867</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7337,16 +7279,14 @@
         <v>873.45</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>867</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7380,16 +7320,14 @@
         <v>873.05</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>865</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7423,16 +7361,14 @@
         <v>873</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
         <v>872</v>
-      </c>
-      <c r="K194" t="n">
-        <v>873</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7466,16 +7402,14 @@
         <v>872.95</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
         <v>872</v>
-      </c>
-      <c r="K195" t="n">
-        <v>873</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7509,16 +7443,14 @@
         <v>872.65</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>867</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7552,16 +7484,14 @@
         <v>872.6</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
         <v>872</v>
-      </c>
-      <c r="K197" t="n">
-        <v>873</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7595,16 +7525,14 @@
         <v>873.1</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>884</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7638,16 +7566,14 @@
         <v>873.45</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>880</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7681,16 +7607,14 @@
         <v>873.8</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>878</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7724,16 +7648,14 @@
         <v>874.35</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>882</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7767,16 +7689,14 @@
         <v>875.15</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>887</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7810,16 +7730,14 @@
         <v>875.05</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>877</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7853,16 +7771,14 @@
         <v>874.9</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>884</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -7896,16 +7812,14 @@
         <v>875.3</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>886</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -7939,16 +7853,14 @@
         <v>876.2</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>892</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -7989,7 +7901,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8030,7 +7942,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8071,7 +7983,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8112,7 +8024,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8153,7 +8065,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8194,7 +8106,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8235,7 +8147,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8276,7 +8188,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8317,7 +8229,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8358,7 +8270,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8399,7 +8311,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8440,7 +8352,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8481,7 +8393,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8522,7 +8434,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8563,7 +8475,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8604,7 +8516,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8645,7 +8557,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8686,7 +8598,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8727,7 +8639,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8768,7 +8680,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8809,7 +8721,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8843,16 +8755,14 @@
         <v>882.95</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>879</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8886,16 +8796,14 @@
         <v>881.95</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>875</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8929,16 +8837,14 @@
         <v>881.1</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>877</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8979,7 +8885,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9020,7 +8926,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9061,7 +8967,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9095,16 +9001,14 @@
         <v>877.35</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>871</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9145,7 +9049,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9179,16 +9083,14 @@
         <v>875.65</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>875</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9222,16 +9124,14 @@
         <v>875.3</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>877</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9265,16 +9165,14 @@
         <v>875.15</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>877</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9308,16 +9206,14 @@
         <v>875.1</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>879</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9351,16 +9247,14 @@
         <v>875.1</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>880</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9394,16 +9288,14 @@
         <v>875.25</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>880</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9437,16 +9329,14 @@
         <v>875.35</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>871</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9480,16 +9370,14 @@
         <v>875.55</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
         <v>872</v>
-      </c>
-      <c r="K243" t="n">
-        <v>873</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9523,16 +9411,14 @@
         <v>875.6</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>876</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9566,16 +9452,14 @@
         <v>875.7</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>877</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9609,16 +9493,14 @@
         <v>875.8</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>877</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9652,16 +9534,14 @@
         <v>875.6</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
         <v>872</v>
-      </c>
-      <c r="K247" t="n">
-        <v>873</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9695,16 +9575,14 @@
         <v>875.55</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>878</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9738,16 +9616,14 @@
         <v>875.95</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>883</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9781,16 +9657,14 @@
         <v>876.05</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>879</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9824,16 +9698,14 @@
         <v>876.15</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>879</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9867,16 +9739,14 @@
         <v>876.1</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>876</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9910,16 +9780,14 @@
         <v>876.3</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>876</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9953,16 +9821,14 @@
         <v>876.5</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>875</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9996,16 +9862,14 @@
         <v>876.7</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>875</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -10039,16 +9903,14 @@
         <v>876.6</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>873</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -10082,16 +9944,14 @@
         <v>876.55</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>876</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -10132,7 +9992,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10173,7 +10033,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10207,16 +10067,14 @@
         <v>876.1</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>876</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10250,16 +10108,14 @@
         <v>876</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>878</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10293,16 +10149,14 @@
         <v>876.2</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>875</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10336,24 +10190,22 @@
         <v>876.5</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
-        <v>878</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>1</v>
+        <v>1.001880733944954</v>
       </c>
     </row>
     <row r="264">
@@ -10379,22 +10231,14 @@
         <v>876.6</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
-        <v>878</v>
-      </c>
-      <c r="K264" t="n">
-        <v>873</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10422,22 +10266,14 @@
         <v>876.65</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>878</v>
-      </c>
-      <c r="K265" t="n">
-        <v>873</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10465,22 +10301,14 @@
         <v>876.8</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>880</v>
-      </c>
-      <c r="K266" t="n">
-        <v>873</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10508,22 +10336,14 @@
         <v>877.3</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>882</v>
-      </c>
-      <c r="K267" t="n">
-        <v>873</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10551,22 +10371,14 @@
         <v>877.85</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>889</v>
-      </c>
-      <c r="K268" t="n">
-        <v>873</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10594,22 +10406,14 @@
         <v>877.85</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>883</v>
-      </c>
-      <c r="K269" t="n">
-        <v>873</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10643,14 +10447,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>873</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10678,22 +10476,14 @@
         <v>877.95</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>881</v>
-      </c>
-      <c r="K271" t="n">
-        <v>873</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10721,22 +10511,14 @@
         <v>878.35</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>884</v>
-      </c>
-      <c r="K272" t="n">
-        <v>873</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10764,22 +10546,14 @@
         <v>879.1</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>891</v>
-      </c>
-      <c r="K273" t="n">
-        <v>873</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10810,17 +10584,11 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>873</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10854,14 +10622,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>873</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10895,14 +10657,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>873</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10936,14 +10692,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>873</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10974,17 +10724,11 @@
         <v>0</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>873</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11018,14 +10762,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>873</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11059,14 +10797,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>873</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11100,14 +10832,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>873</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11141,14 +10867,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>873</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11182,14 +10902,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>873</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11223,14 +10937,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>873</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11264,14 +10972,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>873</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11305,14 +11007,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>873</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11346,14 +11042,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>873</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11387,14 +11077,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>873</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11428,14 +11112,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>873</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11469,14 +11147,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>873</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11510,14 +11182,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>873</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11551,14 +11217,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>873</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11592,14 +11252,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>873</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11633,14 +11287,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>873</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11674,14 +11322,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>873</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11715,14 +11357,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>873</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11756,14 +11392,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>873</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11797,14 +11427,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>873</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11838,14 +11462,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>873</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11879,14 +11497,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>873</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11920,14 +11532,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>873</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11961,14 +11567,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>873</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12002,14 +11602,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>873</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12043,14 +11637,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>873</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12084,14 +11672,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>873</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12125,14 +11707,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>873</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12166,14 +11742,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>873</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12207,14 +11777,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>873</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12248,14 +11812,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>873</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12289,14 +11847,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>873</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12330,14 +11882,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>873</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12371,14 +11917,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>873</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12412,14 +11952,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>873</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12453,14 +11987,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>873</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12494,14 +12022,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>873</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12535,14 +12057,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>873</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12576,14 +12092,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>873</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12617,14 +12127,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>873</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12658,14 +12162,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>873</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12699,14 +12197,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>873</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12740,14 +12232,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>873</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12781,14 +12267,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>873</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12822,14 +12302,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>873</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12860,19 +12334,13 @@
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>873</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
-        <v>1.028218785796106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -12901,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest WTC.xlsx
+++ b/BackTest/2019-10-29 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6630.18350290154</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8749.07600290154</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>10564.21448108729</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>10181.39198108728</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>11141.29558108728</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>11165.01838108728</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>10949.63458108728</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>10934.46898108728</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>10196.31288108728</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>10196.31288108728</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>13765.15788108728</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>14689.20148108728</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>12216.77238108728</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>9171.772481087282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>9177.772481087282</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>7318.115381087282</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>7390.404981087282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>6333.516081087282</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>6336.516081087282</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>6336.516081087282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>6124.663281087282</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6124.663281087282</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>6786.761681087282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>7769.821381087282</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>7827.791381087282</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>8513.189481087282</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>8112.110081087282</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>10665.65419775395</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>7002.601806087282</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>4719.901713490827</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>4719.901713490827</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4336.096213490827</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4336.096213490827</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3032.294413490827</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>940.3331134908267</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-220.3349865091734</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2780.321413490827</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2215.252413490827</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2268.592313490827</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2547.938813490827</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2295.135413490827</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3082.950513490827</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2251.812113490827</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5495.656013490827</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5143.594313490827</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5146.594313490827</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>4562.821113490827</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5022.859513490827</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>4531.565313490827</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5551.692013490827</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5576.692013490827</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5093.692013490827</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5093.692013490827</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5103.692013490827</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>5053.692013490827</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>5474.692013490827</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>5439.692013490827</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>5448.692013490827</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>5014.769113490827</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4806.366813490828</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>6072.658213490828</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1408.149313490828</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1768.295413490828</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1982.625413490828</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1897.218613490828</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>77.12171349082769</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>10.38631349082769</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>10.38631349082769</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-914.8518865091723</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1959.354842062256</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>841.9470420622561</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-550.0737579377439</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-450.3237579377439</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-622.550957937744</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-622.550957937744</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-6942.451857937744</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4039.116257937744</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4040.116257937744</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-4043.006257937744</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4398.350557937743</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -7645,11 +7645,17 @@
         <v>-9289.347568418092</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>868</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,15 +7684,17 @@
         <v>-9288.347568418092</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>868</v>
       </c>
-      <c r="J221" t="n">
-        <v>868</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,17 +7723,15 @@
         <v>-9306.347568418092</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>873</v>
       </c>
-      <c r="J222" t="n">
-        <v>868</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L222" t="n">
@@ -7756,17 +7762,15 @@
         <v>-9269.347568418092</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>871</v>
       </c>
-      <c r="J223" t="n">
-        <v>868</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L223" t="n">
@@ -7797,17 +7801,15 @@
         <v>-9269.347568418092</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>872</v>
       </c>
-      <c r="J224" t="n">
-        <v>868</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -7838,14 +7840,12 @@
         <v>-9496.104868418091</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>872</v>
       </c>
-      <c r="J225" t="n">
-        <v>868</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7879,14 +7879,12 @@
         <v>-8508.033868418092</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>869</v>
       </c>
-      <c r="J226" t="n">
-        <v>868</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7920,14 +7918,12 @@
         <v>-10030.02386841809</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>872</v>
       </c>
-      <c r="J227" t="n">
-        <v>868</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7961,14 +7957,12 @@
         <v>-10030.02386841809</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>870</v>
       </c>
-      <c r="J228" t="n">
-        <v>868</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8002,14 +7996,12 @@
         <v>-10029.02386841809</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>870</v>
       </c>
-      <c r="J229" t="n">
-        <v>868</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8043,14 +8035,12 @@
         <v>-10768.16126841809</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>876</v>
       </c>
-      <c r="J230" t="n">
-        <v>868</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8084,14 +8074,12 @@
         <v>-10583.86016841809</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>871</v>
       </c>
-      <c r="J231" t="n">
-        <v>868</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8125,14 +8113,12 @@
         <v>-10583.86016841809</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>874</v>
       </c>
-      <c r="J232" t="n">
-        <v>868</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,12 +8152,12 @@
         <v>-10603.58296841809</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>874</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8205,14 +8191,12 @@
         <v>-10603.58296841809</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>873</v>
       </c>
-      <c r="J234" t="n">
-        <v>868</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8246,14 +8230,12 @@
         <v>-9580.931368418091</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>873</v>
       </c>
-      <c r="J235" t="n">
-        <v>868</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8287,14 +8269,12 @@
         <v>-10922.74946841809</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>874</v>
       </c>
-      <c r="J236" t="n">
-        <v>868</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,14 +8308,12 @@
         <v>-10652.74946841809</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>873</v>
       </c>
-      <c r="J237" t="n">
-        <v>868</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8369,14 +8347,12 @@
         <v>-10675.12806841809</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>875</v>
       </c>
-      <c r="J238" t="n">
-        <v>868</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8410,14 +8386,12 @@
         <v>-10675.12806841809</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>871</v>
       </c>
-      <c r="J239" t="n">
-        <v>868</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8451,14 +8425,12 @@
         <v>-10675.12806841809</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>871</v>
       </c>
-      <c r="J240" t="n">
-        <v>868</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8492,14 +8464,12 @@
         <v>-10675.12806841809</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>871</v>
       </c>
-      <c r="J241" t="n">
-        <v>868</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8533,14 +8503,12 @@
         <v>-10405.80806841809</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>871</v>
       </c>
-      <c r="J242" t="n">
-        <v>868</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8574,14 +8542,12 @@
         <v>-10466.80806841809</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>882</v>
       </c>
-      <c r="J243" t="n">
-        <v>868</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8615,14 +8581,10 @@
         <v>-9975.838068418092</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>878</v>
-      </c>
-      <c r="J244" t="n">
-        <v>868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8659,9 +8621,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>868</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8695,12 +8655,12 @@
         <v>-13261.44716841809</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>879</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8734,12 +8694,12 @@
         <v>-13261.44716841809</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>874</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8773,12 +8733,12 @@
         <v>-13262.44716841809</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>874</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8812,12 +8772,12 @@
         <v>-13261.44716841809</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>873</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8851,12 +8811,12 @@
         <v>-13273.19616841809</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>876</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8890,14 +8850,12 @@
         <v>-13273.19616841809</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>867</v>
       </c>
-      <c r="J251" t="n">
-        <v>868</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8931,14 +8889,12 @@
         <v>-17234.62256841809</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>867</v>
       </c>
-      <c r="J252" t="n">
-        <v>868</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8972,14 +8928,12 @@
         <v>-17232.62256841809</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>864</v>
       </c>
-      <c r="J253" t="n">
-        <v>868</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9013,14 +8967,12 @@
         <v>-16232.62256841809</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>872</v>
       </c>
-      <c r="J254" t="n">
-        <v>868</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9054,14 +9006,12 @@
         <v>-17269.50136841809</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>873</v>
       </c>
-      <c r="J255" t="n">
-        <v>868</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9095,14 +9045,12 @@
         <v>-14829.50136841809</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>864</v>
       </c>
-      <c r="J256" t="n">
-        <v>868</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9136,12 +9084,12 @@
         <v>-16617.90136841809</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>887</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9175,14 +9123,12 @@
         <v>-17214.02136841809</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>884</v>
       </c>
-      <c r="J258" t="n">
-        <v>868</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9216,12 +9162,12 @@
         <v>-17842.23136841809</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>880</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9255,12 +9201,12 @@
         <v>-17458.54246841809</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>878</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9294,12 +9240,12 @@
         <v>-15949.97776841809</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>882</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9333,12 +9279,12 @@
         <v>-16367.99056841809</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>887</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,12 +9318,12 @@
         <v>-15681.59056841809</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>877</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,9 +9360,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>868</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9450,12 +9394,12 @@
         <v>-15976.68826841809</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>888</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9489,12 +9433,12 @@
         <v>-14942.81826841809</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>892</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9528,12 +9472,12 @@
         <v>-14711.15716841809</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>893</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9567,12 +9511,12 @@
         <v>-16119.07336841809</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>895</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9609,9 +9553,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>868</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9645,12 +9587,12 @@
         <v>-15066.81076841809</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>895</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9687,9 +9629,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>868</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9723,12 +9663,12 @@
         <v>-14647.77706841809</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>897</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9762,12 +9702,12 @@
         <v>-14647.77706841809</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>891</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9801,12 +9741,12 @@
         <v>-13653.71706841809</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>891</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9843,9 +9783,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>868</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9879,12 +9817,12 @@
         <v>-15579.80446841809</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>888</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9918,12 +9856,12 @@
         <v>-15584.80446841809</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>881</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9957,12 +9895,12 @@
         <v>-15589.80446841809</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>880</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9996,12 +9934,12 @@
         <v>-15588.80446841809</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>879</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10035,12 +9973,12 @@
         <v>-15592.80446841809</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>880</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10074,12 +10012,12 @@
         <v>-17115.92076841809</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>877</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10113,12 +10051,12 @@
         <v>-24372.80386841809</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>869</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10152,12 +10090,12 @@
         <v>-24337.10116841809</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>864</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10191,12 +10129,12 @@
         <v>-24337.10116841809</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>875</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10230,12 +10168,12 @@
         <v>-24337.10116841809</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>875</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10269,12 +10207,12 @@
         <v>-24263.83186841809</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>875</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10308,12 +10246,12 @@
         <v>-24262.83186841809</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>876</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10347,12 +10285,12 @@
         <v>-32259.78886841809</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>879</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10389,9 +10327,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>868</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10425,12 +10361,12 @@
         <v>-32163.91366841809</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>878</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10467,9 +10403,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>868</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10506,9 +10440,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>868</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10542,12 +10474,12 @@
         <v>-35072.78936841809</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>871</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10581,12 +10513,12 @@
         <v>-35072.78936841809</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>871</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10620,12 +10552,12 @@
         <v>-35070.78936841809</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>871</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10659,12 +10591,12 @@
         <v>-34967.75936841809</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>875</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10698,12 +10630,12 @@
         <v>-34967.75936841809</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>877</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10737,12 +10669,12 @@
         <v>-34931.14756841809</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>877</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10776,12 +10708,12 @@
         <v>-34542.73026841809</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>879</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10815,12 +10747,12 @@
         <v>-34542.73026841809</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>880</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10854,12 +10786,12 @@
         <v>-34938.50426841809</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>880</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10893,12 +10825,12 @@
         <v>-34248.63646841809</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>871</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10932,12 +10864,12 @@
         <v>-34210.62016841809</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>875</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10971,12 +10903,12 @@
         <v>-33977.95016841809</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>877</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11010,12 +10942,12 @@
         <v>-34314.35016841809</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>878</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11049,14 +10981,12 @@
         <v>-34335.51556841809</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>877</v>
       </c>
-      <c r="J306" t="n">
-        <v>868</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11090,12 +11020,12 @@
         <v>-34277.41556841809</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>872</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11129,12 +11059,12 @@
         <v>-33975.24766841809</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>880</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11168,12 +11098,12 @@
         <v>-33988.37386841809</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>883</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11207,12 +11137,12 @@
         <v>-34026.46646841809</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>879</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11246,12 +11176,12 @@
         <v>-34026.46646841809</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>876</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11285,12 +11215,12 @@
         <v>-33944.71716841809</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>876</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11324,12 +11254,12 @@
         <v>-33948.55176841809</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>879</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11363,12 +11293,12 @@
         <v>-33948.55176841809</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>875</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11402,12 +11332,12 @@
         <v>-43997.16346841809</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>875</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11441,12 +11371,12 @@
         <v>-42894.67386841809</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>866</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11480,12 +11410,12 @@
         <v>-42680.12406841809</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>874</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11519,12 +11449,12 @@
         <v>-43107.02546841809</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>877</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,12 +11488,12 @@
         <v>-43107.02546841809</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>876</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11597,12 +11527,12 @@
         <v>-42307.02546841809</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>876</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11636,12 +11566,12 @@
         <v>-42329.31166841809</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>878</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11675,12 +11605,12 @@
         <v>-42323.51166841809</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>876</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11714,12 +11644,12 @@
         <v>-42323.51166841809</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>878</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11753,12 +11683,12 @@
         <v>-41690.32346841809</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>878</v>
+      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11792,12 +11722,12 @@
         <v>-41690.32346841809</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>880</v>
+      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11831,14 +11761,12 @@
         <v>-39923.89556841809</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>880</v>
       </c>
-      <c r="J326" t="n">
-        <v>868</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11872,12 +11800,12 @@
         <v>-39179.29616841809</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>888</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11911,12 +11839,12 @@
         <v>-40316.96816841809</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>889</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11950,12 +11878,12 @@
         <v>-38572.66896841809</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>873</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11989,12 +11917,12 @@
         <v>-37991.45876841809</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>879</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12028,12 +11956,12 @@
         <v>-37563.84186841809</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>882</v>
+      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12067,12 +11995,12 @@
         <v>-37527.54066841809</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>884</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12109,9 +12037,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>868</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12148,9 +12074,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>868</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12187,9 +12111,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>868</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12226,9 +12148,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>868</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12265,9 +12185,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>868</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12304,9 +12222,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>868</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12340,12 +12256,12 @@
         <v>-39347.08676841808</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>893</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12382,9 +12298,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>868</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12421,9 +12335,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>868</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12460,9 +12372,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>868</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12499,9 +12409,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>868</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12535,12 +12443,12 @@
         <v>-39408.44206841809</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>896</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12577,9 +12485,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>868</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12613,12 +12519,12 @@
         <v>-38338.34656841808</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>893</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12652,12 +12558,12 @@
         <v>-38338.34656841808</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>896</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12694,9 +12600,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>868</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12733,9 +12637,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>868</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12769,12 +12671,12 @@
         <v>-41082.51766841808</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>889</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12808,12 +12710,12 @@
         <v>-39932.47386841808</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>888</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12847,12 +12749,12 @@
         <v>-40984.15386841809</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>892</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12889,9 +12791,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>868</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12925,12 +12825,12 @@
         <v>-38142.24016841809</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>893</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12967,9 +12867,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>868</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13006,9 +12904,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>868</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13045,9 +12941,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>868</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13084,9 +12978,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>868</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13123,9 +13015,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>868</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,9 +13052,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>868</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13201,9 +13089,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>868</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13240,9 +13126,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>868</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13279,9 +13163,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>868</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13318,9 +13200,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>868</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13357,9 +13237,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>868</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13396,9 +13274,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>868</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13435,9 +13311,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>868</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13474,9 +13348,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>868</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13513,9 +13385,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>868</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13549,12 +13419,12 @@
         <v>-40221.25386841808</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>896</v>
+      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13588,12 +13458,12 @@
         <v>-39486.64686841809</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>896</v>
+      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13627,12 +13497,12 @@
         <v>-39486.64686841809</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>901</v>
+      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13669,9 +13539,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>868</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13708,9 +13576,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>868</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13747,9 +13613,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>868</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13786,9 +13650,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>868</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13825,9 +13687,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>868</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13864,9 +13724,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>868</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13903,9 +13761,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>868</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13942,9 +13798,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>868</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13981,9 +13835,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>868</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14020,9 +13872,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>868</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14059,9 +13909,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>868</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14098,9 +13946,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>868</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14137,9 +13983,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>868</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14176,9 +14020,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>868</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14215,9 +14057,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>868</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14254,9 +14094,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>868</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14293,9 +14131,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>868</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14332,9 +14168,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>868</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14368,12 +14202,12 @@
         <v>-39232.51436841809</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>906</v>
+      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14410,9 +14244,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>868</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14446,12 +14278,12 @@
         <v>-41330.05616841809</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>898</v>
+      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14485,12 +14317,12 @@
         <v>-41295.04036841809</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>898</v>
+      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14524,12 +14356,12 @@
         <v>-40488.06636841808</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>868</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>901</v>
+      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14566,9 +14398,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>868</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14605,9 +14435,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>868</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14644,9 +14472,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>868</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14683,9 +14509,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>868</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14722,9 +14546,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>868</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14736,6 +14558,6 @@
       <c r="M400" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest WTC.xlsx
+++ b/BackTest/2019-10-29 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>10181.39198108728</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>11165.01838108728</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>10949.63458108728</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>10934.46898108728</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>10196.31288108728</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>10196.31288108728</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>13765.15788108728</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>14689.20148108728</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>14466.06048108728</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>13456.70958108728</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>9171.772481087282</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>9177.772481087282</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>7318.115381087282</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>7390.404981087282</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>6333.516081087282</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>6336.516081087282</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>6336.516081087282</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>6124.663281087282</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6124.663281087282</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>6786.761681087282</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>7769.821381087282</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>7827.791381087282</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>8513.189481087282</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>8112.110081087282</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>10665.65419775395</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>7002.601806087282</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>4719.901713490827</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>4719.901713490827</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4336.096213490827</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4336.096213490827</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3032.294413490827</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>940.3331134908267</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-220.3349865091734</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2780.321413490827</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2215.252413490827</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2268.592313490827</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2547.938813490827</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2295.135413490827</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3082.950513490827</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2251.812113490827</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5495.656013490827</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5143.594313490827</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5146.594313490827</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>4562.821113490827</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5022.859513490827</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>4531.565313490827</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5551.692013490827</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5576.692013490827</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5093.692013490827</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5093.692013490827</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5103.692013490827</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>5053.692013490827</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>5474.692013490827</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>5439.692013490827</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>5448.692013490827</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>5014.769113490827</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4806.366813490828</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>6072.658213490828</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1408.149313490828</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1768.295413490828</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1982.625413490828</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1897.218613490828</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>77.12171349082769</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>10.38631349082769</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>10.38631349082769</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-914.8518865091723</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-6872.762557937744</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-6871.762557937744</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-5871.762557937744</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-5942.876257937744</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-6840.099757937744</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-6942.451857937744</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-6942.451857937744</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4076.149957937744</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4077.149957937744</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4078.149957937744</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4039.116257937744</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4040.116257937744</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4046.104257937744</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4046.104257937744</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4398.350557937743</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4410.000557937743</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-4417.880557937743</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -7645,3704 +7645,3158 @@
         <v>-9289.347568418092</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>873</v>
+      </c>
+      <c r="C221" t="n">
+        <v>873</v>
+      </c>
+      <c r="D221" t="n">
+        <v>873</v>
+      </c>
+      <c r="E221" t="n">
+        <v>873</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-9288.347568418092</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>871</v>
+      </c>
+      <c r="C222" t="n">
+        <v>871</v>
+      </c>
+      <c r="D222" t="n">
+        <v>871</v>
+      </c>
+      <c r="E222" t="n">
+        <v>871</v>
+      </c>
+      <c r="F222" t="n">
+        <v>18</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-9306.347568418092</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>871</v>
+      </c>
+      <c r="C223" t="n">
+        <v>872</v>
+      </c>
+      <c r="D223" t="n">
+        <v>872</v>
+      </c>
+      <c r="E223" t="n">
+        <v>871</v>
+      </c>
+      <c r="F223" t="n">
+        <v>37</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-9269.347568418092</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>869</v>
+      </c>
+      <c r="C224" t="n">
+        <v>872</v>
+      </c>
+      <c r="D224" t="n">
+        <v>872</v>
+      </c>
+      <c r="E224" t="n">
+        <v>869</v>
+      </c>
+      <c r="F224" t="n">
+        <v>59.9213</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-9269.347568418092</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>869</v>
+      </c>
+      <c r="C225" t="n">
+        <v>869</v>
+      </c>
+      <c r="D225" t="n">
+        <v>869</v>
+      </c>
+      <c r="E225" t="n">
+        <v>869</v>
+      </c>
+      <c r="F225" t="n">
+        <v>226.7573</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-9496.104868418091</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>870</v>
+      </c>
+      <c r="C226" t="n">
+        <v>872</v>
+      </c>
+      <c r="D226" t="n">
+        <v>872</v>
+      </c>
+      <c r="E226" t="n">
+        <v>870</v>
+      </c>
+      <c r="F226" t="n">
+        <v>988.071</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-8508.033868418092</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>870</v>
+      </c>
+      <c r="C227" t="n">
+        <v>870</v>
+      </c>
+      <c r="D227" t="n">
+        <v>870</v>
+      </c>
+      <c r="E227" t="n">
+        <v>870</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1521.99</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-10030.02386841809</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>870</v>
+      </c>
+      <c r="C228" t="n">
+        <v>870</v>
+      </c>
+      <c r="D228" t="n">
+        <v>870</v>
+      </c>
+      <c r="E228" t="n">
+        <v>870</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1367.6138</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-10030.02386841809</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>876</v>
+      </c>
+      <c r="C229" t="n">
+        <v>876</v>
+      </c>
+      <c r="D229" t="n">
+        <v>876</v>
+      </c>
+      <c r="E229" t="n">
+        <v>876</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-10029.02386841809</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>876</v>
+      </c>
+      <c r="C230" t="n">
+        <v>871</v>
+      </c>
+      <c r="D230" t="n">
+        <v>876</v>
+      </c>
+      <c r="E230" t="n">
+        <v>870</v>
+      </c>
+      <c r="F230" t="n">
+        <v>739.1374</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-10768.16126841809</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>874</v>
+      </c>
+      <c r="C231" t="n">
+        <v>874</v>
+      </c>
+      <c r="D231" t="n">
+        <v>874</v>
+      </c>
+      <c r="E231" t="n">
+        <v>874</v>
+      </c>
+      <c r="F231" t="n">
+        <v>184.3011</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-10583.86016841809</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>873</v>
+      </c>
+      <c r="C232" t="n">
+        <v>874</v>
+      </c>
+      <c r="D232" t="n">
+        <v>874</v>
+      </c>
+      <c r="E232" t="n">
+        <v>873</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1342.4899</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-10583.86016841809</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>873</v>
+      </c>
+      <c r="C233" t="n">
+        <v>873</v>
+      </c>
+      <c r="D233" t="n">
+        <v>873</v>
+      </c>
+      <c r="E233" t="n">
+        <v>873</v>
+      </c>
+      <c r="F233" t="n">
+        <v>19.7228</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-10603.58296841809</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>873</v>
+      </c>
+      <c r="C234" t="n">
+        <v>873</v>
+      </c>
+      <c r="D234" t="n">
+        <v>873</v>
+      </c>
+      <c r="E234" t="n">
+        <v>873</v>
+      </c>
+      <c r="F234" t="n">
+        <v>468.45</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-10603.58296841809</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>873</v>
+      </c>
+      <c r="C235" t="n">
+        <v>874</v>
+      </c>
+      <c r="D235" t="n">
+        <v>874</v>
+      </c>
+      <c r="E235" t="n">
+        <v>873</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1022.6516</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-9580.931368418091</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>873</v>
+      </c>
+      <c r="C236" t="n">
+        <v>873</v>
+      </c>
+      <c r="D236" t="n">
+        <v>873</v>
+      </c>
+      <c r="E236" t="n">
+        <v>873</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1341.8181</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-10922.74946841809</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>874</v>
+      </c>
+      <c r="C237" t="n">
+        <v>875</v>
+      </c>
+      <c r="D237" t="n">
+        <v>875</v>
+      </c>
+      <c r="E237" t="n">
+        <v>874</v>
+      </c>
+      <c r="F237" t="n">
+        <v>270</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-10652.74946841809</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>873</v>
+      </c>
+      <c r="C238" t="n">
+        <v>871</v>
+      </c>
+      <c r="D238" t="n">
+        <v>873</v>
+      </c>
+      <c r="E238" t="n">
+        <v>871</v>
+      </c>
+      <c r="F238" t="n">
+        <v>22.3786</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-10675.12806841809</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>871</v>
+      </c>
+      <c r="C239" t="n">
+        <v>871</v>
+      </c>
+      <c r="D239" t="n">
+        <v>871</v>
+      </c>
+      <c r="E239" t="n">
+        <v>871</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1350.5715</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-10675.12806841809</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>871</v>
+      </c>
+      <c r="C240" t="n">
+        <v>871</v>
+      </c>
+      <c r="D240" t="n">
+        <v>871</v>
+      </c>
+      <c r="E240" t="n">
+        <v>871</v>
+      </c>
+      <c r="F240" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-10675.12806841809</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>871</v>
+      </c>
+      <c r="C241" t="n">
+        <v>871</v>
+      </c>
+      <c r="D241" t="n">
+        <v>871</v>
+      </c>
+      <c r="E241" t="n">
+        <v>871</v>
+      </c>
+      <c r="F241" t="n">
+        <v>22.8125</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-10675.12806841809</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>879</v>
+      </c>
+      <c r="C242" t="n">
+        <v>882</v>
+      </c>
+      <c r="D242" t="n">
+        <v>882</v>
+      </c>
+      <c r="E242" t="n">
+        <v>879</v>
+      </c>
+      <c r="F242" t="n">
+        <v>269.32</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-10405.80806841809</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>887</v>
+      </c>
+      <c r="C243" t="n">
+        <v>878</v>
+      </c>
+      <c r="D243" t="n">
+        <v>887</v>
+      </c>
+      <c r="E243" t="n">
+        <v>878</v>
+      </c>
+      <c r="F243" t="n">
+        <v>61</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-10466.80806841809</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>878</v>
+      </c>
+      <c r="C244" t="n">
+        <v>885</v>
+      </c>
+      <c r="D244" t="n">
+        <v>887</v>
+      </c>
+      <c r="E244" t="n">
+        <v>875</v>
+      </c>
+      <c r="F244" t="n">
+        <v>490.97</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-9975.838068418092</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>874</v>
+      </c>
+      <c r="C245" t="n">
+        <v>879</v>
+      </c>
+      <c r="D245" t="n">
+        <v>879</v>
+      </c>
+      <c r="E245" t="n">
+        <v>874</v>
+      </c>
+      <c r="F245" t="n">
+        <v>66</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-10041.83806841809</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>873</v>
+      </c>
+      <c r="C246" t="n">
+        <v>874</v>
+      </c>
+      <c r="D246" t="n">
+        <v>875</v>
+      </c>
+      <c r="E246" t="n">
+        <v>870</v>
+      </c>
+      <c r="F246" t="n">
+        <v>3219.6091</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-13261.44716841809</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>870</v>
+      </c>
+      <c r="C247" t="n">
+        <v>874</v>
+      </c>
+      <c r="D247" t="n">
+        <v>874</v>
+      </c>
+      <c r="E247" t="n">
+        <v>870</v>
+      </c>
+      <c r="F247" t="n">
+        <v>60.4028</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-13261.44716841809</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>873</v>
+      </c>
+      <c r="C248" t="n">
+        <v>873</v>
+      </c>
+      <c r="D248" t="n">
+        <v>873</v>
+      </c>
+      <c r="E248" t="n">
+        <v>873</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-13262.44716841809</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>876</v>
+      </c>
+      <c r="C249" t="n">
+        <v>876</v>
+      </c>
+      <c r="D249" t="n">
+        <v>876</v>
+      </c>
+      <c r="E249" t="n">
+        <v>876</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-13261.44716841809</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>867</v>
+      </c>
+      <c r="C250" t="n">
+        <v>867</v>
+      </c>
+      <c r="D250" t="n">
+        <v>867</v>
+      </c>
+      <c r="E250" t="n">
+        <v>867</v>
+      </c>
+      <c r="F250" t="n">
+        <v>11.749</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-13273.19616841809</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>867</v>
+      </c>
+      <c r="C251" t="n">
+        <v>867</v>
+      </c>
+      <c r="D251" t="n">
+        <v>867</v>
+      </c>
+      <c r="E251" t="n">
+        <v>867</v>
+      </c>
+      <c r="F251" t="n">
+        <v>65.051</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-13273.19616841809</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>865</v>
+      </c>
+      <c r="C252" t="n">
+        <v>864</v>
+      </c>
+      <c r="D252" t="n">
+        <v>865</v>
+      </c>
+      <c r="E252" t="n">
+        <v>864</v>
+      </c>
+      <c r="F252" t="n">
+        <v>3961.4264</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-17234.62256841809</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>872</v>
+      </c>
+      <c r="C253" t="n">
+        <v>872</v>
+      </c>
+      <c r="D253" t="n">
+        <v>872</v>
+      </c>
+      <c r="E253" t="n">
+        <v>872</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-17232.62256841809</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>872</v>
+      </c>
+      <c r="C254" t="n">
+        <v>873</v>
+      </c>
+      <c r="D254" t="n">
+        <v>873</v>
+      </c>
+      <c r="E254" t="n">
+        <v>872</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-16232.62256841809</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>867</v>
+      </c>
+      <c r="C255" t="n">
+        <v>864</v>
+      </c>
+      <c r="D255" t="n">
+        <v>867</v>
+      </c>
+      <c r="E255" t="n">
+        <v>864</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1036.8788</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-17269.50136841809</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>872</v>
+      </c>
+      <c r="C256" t="n">
+        <v>887</v>
+      </c>
+      <c r="D256" t="n">
+        <v>887</v>
+      </c>
+      <c r="E256" t="n">
+        <v>871</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2440</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-14829.50136841809</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>884</v>
+      </c>
+      <c r="C257" t="n">
+        <v>884</v>
+      </c>
+      <c r="D257" t="n">
+        <v>885</v>
+      </c>
+      <c r="E257" t="n">
+        <v>884</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1788.4</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-16617.90136841809</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>880</v>
+      </c>
+      <c r="C258" t="n">
+        <v>880</v>
+      </c>
+      <c r="D258" t="n">
+        <v>880</v>
+      </c>
+      <c r="E258" t="n">
+        <v>879</v>
+      </c>
+      <c r="F258" t="n">
+        <v>596.12</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-17214.02136841809</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>878</v>
+      </c>
+      <c r="C259" t="n">
+        <v>878</v>
+      </c>
+      <c r="D259" t="n">
+        <v>878</v>
+      </c>
+      <c r="E259" t="n">
+        <v>878</v>
+      </c>
+      <c r="F259" t="n">
+        <v>628.21</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-17842.23136841809</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>882</v>
+      </c>
+      <c r="C260" t="n">
+        <v>882</v>
+      </c>
+      <c r="D260" t="n">
+        <v>882</v>
+      </c>
+      <c r="E260" t="n">
+        <v>882</v>
+      </c>
+      <c r="F260" t="n">
+        <v>383.6889</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-17458.54246841809</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>887</v>
+      </c>
+      <c r="C261" t="n">
+        <v>887</v>
+      </c>
+      <c r="D261" t="n">
+        <v>887</v>
+      </c>
+      <c r="E261" t="n">
+        <v>887</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1508.5647</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-15949.97776841809</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>877</v>
+      </c>
+      <c r="C262" t="n">
+        <v>877</v>
+      </c>
+      <c r="D262" t="n">
+        <v>877</v>
+      </c>
+      <c r="E262" t="n">
+        <v>877</v>
+      </c>
+      <c r="F262" t="n">
+        <v>418.0128</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-16367.99056841809</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>884</v>
+      </c>
+      <c r="C263" t="n">
+        <v>892</v>
+      </c>
+      <c r="D263" t="n">
+        <v>892</v>
+      </c>
+      <c r="E263" t="n">
+        <v>884</v>
+      </c>
+      <c r="F263" t="n">
+        <v>686.4</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-15681.59056841809</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>886</v>
+      </c>
+      <c r="C264" t="n">
+        <v>888</v>
+      </c>
+      <c r="D264" t="n">
+        <v>888</v>
+      </c>
+      <c r="E264" t="n">
+        <v>885</v>
+      </c>
+      <c r="F264" t="n">
+        <v>296.0977</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-15977.68826841809</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>892</v>
+      </c>
+      <c r="C265" t="n">
+        <v>892</v>
+      </c>
+      <c r="D265" t="n">
+        <v>892</v>
+      </c>
+      <c r="E265" t="n">
+        <v>892</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-15976.68826841809</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>892</v>
+      </c>
+      <c r="C266" t="n">
+        <v>893</v>
+      </c>
+      <c r="D266" t="n">
+        <v>893</v>
+      </c>
+      <c r="E266" t="n">
+        <v>892</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1033.87</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-14942.81826841809</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>893</v>
+      </c>
+      <c r="C267" t="n">
+        <v>895</v>
+      </c>
+      <c r="D267" t="n">
+        <v>895</v>
+      </c>
+      <c r="E267" t="n">
+        <v>893</v>
+      </c>
+      <c r="F267" t="n">
+        <v>231.6611</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-14711.15716841809</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>895</v>
+      </c>
+      <c r="C268" t="n">
+        <v>892</v>
+      </c>
+      <c r="D268" t="n">
+        <v>895</v>
+      </c>
+      <c r="E268" t="n">
+        <v>892</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1407.9162</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-16119.07336841809</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>894</v>
+      </c>
+      <c r="C269" t="n">
+        <v>895</v>
+      </c>
+      <c r="D269" t="n">
+        <v>895</v>
+      </c>
+      <c r="E269" t="n">
+        <v>890</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1052.2626</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-15066.81076841809</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>895</v>
+      </c>
+      <c r="C270" t="n">
+        <v>895</v>
+      </c>
+      <c r="D270" t="n">
+        <v>895</v>
+      </c>
+      <c r="E270" t="n">
+        <v>895</v>
+      </c>
+      <c r="F270" t="n">
+        <v>5</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-15066.81076841809</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>895</v>
+      </c>
+      <c r="C271" t="n">
+        <v>897</v>
+      </c>
+      <c r="D271" t="n">
+        <v>899</v>
+      </c>
+      <c r="E271" t="n">
+        <v>895</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1164.4174</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-13902.39336841809</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>891</v>
+      </c>
+      <c r="C272" t="n">
+        <v>891</v>
+      </c>
+      <c r="D272" t="n">
+        <v>891</v>
+      </c>
+      <c r="E272" t="n">
+        <v>891</v>
+      </c>
+      <c r="F272" t="n">
+        <v>745.3837</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-14647.77706841809</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>891</v>
+      </c>
+      <c r="C273" t="n">
+        <v>891</v>
+      </c>
+      <c r="D273" t="n">
+        <v>891</v>
+      </c>
+      <c r="E273" t="n">
+        <v>891</v>
+      </c>
+      <c r="F273" t="n">
+        <v>17.409</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-14647.77706841809</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>892</v>
+      </c>
+      <c r="C274" t="n">
+        <v>893</v>
+      </c>
+      <c r="D274" t="n">
+        <v>893</v>
+      </c>
+      <c r="E274" t="n">
+        <v>892</v>
+      </c>
+      <c r="F274" t="n">
+        <v>994.0599999999999</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-13653.71706841809</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>888</v>
+      </c>
+      <c r="C275" t="n">
+        <v>888</v>
+      </c>
+      <c r="D275" t="n">
+        <v>888</v>
+      </c>
+      <c r="E275" t="n">
+        <v>888</v>
+      </c>
+      <c r="F275" t="n">
+        <v>544</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-14197.71706841809</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>884</v>
+      </c>
+      <c r="C276" t="n">
+        <v>881</v>
+      </c>
+      <c r="D276" t="n">
+        <v>884</v>
+      </c>
+      <c r="E276" t="n">
+        <v>881</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1382.0874</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-15579.80446841809</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>880</v>
+      </c>
+      <c r="C277" t="n">
+        <v>880</v>
+      </c>
+      <c r="D277" t="n">
+        <v>880</v>
+      </c>
+      <c r="E277" t="n">
+        <v>880</v>
+      </c>
+      <c r="F277" t="n">
+        <v>5</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-15584.80446841809</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>880</v>
+      </c>
+      <c r="C278" t="n">
+        <v>879</v>
+      </c>
+      <c r="D278" t="n">
+        <v>880</v>
+      </c>
+      <c r="E278" t="n">
+        <v>879</v>
+      </c>
+      <c r="F278" t="n">
+        <v>5</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-15589.80446841809</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>880</v>
+      </c>
+      <c r="C279" t="n">
+        <v>880</v>
+      </c>
+      <c r="D279" t="n">
+        <v>880</v>
+      </c>
+      <c r="E279" t="n">
+        <v>880</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-15588.80446841809</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>877</v>
+      </c>
+      <c r="C280" t="n">
+        <v>877</v>
+      </c>
+      <c r="D280" t="n">
+        <v>877</v>
+      </c>
+      <c r="E280" t="n">
+        <v>877</v>
+      </c>
+      <c r="F280" t="n">
+        <v>4</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-15592.80446841809</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>869</v>
+      </c>
+      <c r="C281" t="n">
+        <v>869</v>
+      </c>
+      <c r="D281" t="n">
+        <v>869</v>
+      </c>
+      <c r="E281" t="n">
+        <v>869</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1523.1163</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-17115.92076841809</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
         <v>868</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
+      <c r="C282" t="n">
+        <v>864</v>
+      </c>
+      <c r="D282" t="n">
+        <v>868</v>
+      </c>
+      <c r="E282" t="n">
+        <v>864</v>
+      </c>
+      <c r="F282" t="n">
+        <v>7256.8831</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-24372.80386841809</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>875</v>
+      </c>
+      <c r="C283" t="n">
+        <v>875</v>
+      </c>
+      <c r="D283" t="n">
+        <v>875</v>
+      </c>
+      <c r="E283" t="n">
+        <v>875</v>
+      </c>
+      <c r="F283" t="n">
+        <v>35.7027</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-24337.10116841809</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>875</v>
+      </c>
+      <c r="C284" t="n">
+        <v>875</v>
+      </c>
+      <c r="D284" t="n">
+        <v>875</v>
+      </c>
+      <c r="E284" t="n">
+        <v>875</v>
+      </c>
+      <c r="F284" t="n">
+        <v>35.1902</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-24337.10116841809</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>875</v>
+      </c>
+      <c r="C285" t="n">
+        <v>875</v>
+      </c>
+      <c r="D285" t="n">
+        <v>875</v>
+      </c>
+      <c r="E285" t="n">
+        <v>875</v>
+      </c>
+      <c r="F285" t="n">
+        <v>754.6953999999999</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-24337.10116841809</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>876</v>
+      </c>
+      <c r="C286" t="n">
+        <v>876</v>
+      </c>
+      <c r="D286" t="n">
+        <v>876</v>
+      </c>
+      <c r="E286" t="n">
+        <v>876</v>
+      </c>
+      <c r="F286" t="n">
+        <v>73.2693</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-24263.83186841809</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>879</v>
+      </c>
+      <c r="C287" t="n">
+        <v>879</v>
+      </c>
+      <c r="D287" t="n">
+        <v>879</v>
+      </c>
+      <c r="E287" t="n">
+        <v>879</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-24262.83186841809</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>875</v>
+      </c>
+      <c r="C288" t="n">
+        <v>874</v>
+      </c>
+      <c r="D288" t="n">
+        <v>876</v>
+      </c>
+      <c r="E288" t="n">
+        <v>860</v>
+      </c>
+      <c r="F288" t="n">
+        <v>7996.957</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-32259.78886841809</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>877</v>
+      </c>
+      <c r="C289" t="n">
+        <v>878</v>
+      </c>
+      <c r="D289" t="n">
+        <v>878</v>
+      </c>
+      <c r="E289" t="n">
+        <v>877</v>
+      </c>
+      <c r="F289" t="n">
+        <v>857.9351</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-31401.85376841809</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>877</v>
+      </c>
+      <c r="C290" t="n">
+        <v>877</v>
+      </c>
+      <c r="D290" t="n">
+        <v>877</v>
+      </c>
+      <c r="E290" t="n">
+        <v>877</v>
+      </c>
+      <c r="F290" t="n">
+        <v>762.0599</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-32163.91366841809</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>877</v>
+      </c>
+      <c r="C291" t="n">
+        <v>877</v>
+      </c>
+      <c r="D291" t="n">
+        <v>877</v>
+      </c>
+      <c r="E291" t="n">
+        <v>877</v>
+      </c>
+      <c r="F291" t="n">
+        <v>247.5508</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-32163.91366841809</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>872</v>
+      </c>
+      <c r="C292" t="n">
+        <v>871</v>
+      </c>
+      <c r="D292" t="n">
+        <v>872</v>
+      </c>
+      <c r="E292" t="n">
+        <v>871</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2908.8757</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-35072.78936841809</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>871</v>
+      </c>
+      <c r="C293" t="n">
+        <v>871</v>
+      </c>
+      <c r="D293" t="n">
+        <v>871</v>
+      </c>
+      <c r="E293" t="n">
+        <v>871</v>
+      </c>
+      <c r="F293" t="n">
+        <v>2.0001</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-35072.78936841809</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>871</v>
+      </c>
+      <c r="C294" t="n">
+        <v>871</v>
+      </c>
+      <c r="D294" t="n">
+        <v>871</v>
+      </c>
+      <c r="E294" t="n">
+        <v>871</v>
+      </c>
+      <c r="F294" t="n">
+        <v>182.5864</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-35072.78936841809</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>875</v>
+      </c>
+      <c r="C295" t="n">
+        <v>875</v>
+      </c>
+      <c r="D295" t="n">
+        <v>875</v>
+      </c>
+      <c r="E295" t="n">
+        <v>875</v>
+      </c>
+      <c r="F295" t="n">
+        <v>2</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-35070.78936841809</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>877</v>
+      </c>
+      <c r="C296" t="n">
+        <v>877</v>
+      </c>
+      <c r="D296" t="n">
+        <v>877</v>
+      </c>
+      <c r="E296" t="n">
+        <v>877</v>
+      </c>
+      <c r="F296" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-34967.75936841809</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>877</v>
+      </c>
+      <c r="C297" t="n">
+        <v>877</v>
+      </c>
+      <c r="D297" t="n">
+        <v>877</v>
+      </c>
+      <c r="E297" t="n">
+        <v>877</v>
+      </c>
+      <c r="F297" t="n">
+        <v>61.8259</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-34967.75936841809</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>879</v>
+      </c>
+      <c r="C298" t="n">
+        <v>879</v>
+      </c>
+      <c r="D298" t="n">
+        <v>879</v>
+      </c>
+      <c r="E298" t="n">
+        <v>879</v>
+      </c>
+      <c r="F298" t="n">
+        <v>36.6118</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-34931.14756841809</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>880</v>
+      </c>
+      <c r="C299" t="n">
+        <v>880</v>
+      </c>
+      <c r="D299" t="n">
+        <v>880</v>
+      </c>
+      <c r="E299" t="n">
+        <v>880</v>
+      </c>
+      <c r="F299" t="n">
+        <v>388.4173</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-34542.73026841809</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>880</v>
+      </c>
+      <c r="C300" t="n">
+        <v>880</v>
+      </c>
+      <c r="D300" t="n">
+        <v>880</v>
+      </c>
+      <c r="E300" t="n">
+        <v>880</v>
+      </c>
+      <c r="F300" t="n">
+        <v>548.6306</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-34542.73026841809</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>871</v>
+      </c>
+      <c r="C301" t="n">
+        <v>871</v>
+      </c>
+      <c r="D301" t="n">
+        <v>871</v>
+      </c>
+      <c r="E301" t="n">
+        <v>871</v>
+      </c>
+      <c r="F301" t="n">
+        <v>395.774</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-34938.50426841809</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>872</v>
+      </c>
+      <c r="C302" t="n">
+        <v>875</v>
+      </c>
+      <c r="D302" t="n">
+        <v>875</v>
+      </c>
+      <c r="E302" t="n">
+        <v>871</v>
+      </c>
+      <c r="F302" t="n">
+        <v>689.8678</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-34248.63646841809</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>876</v>
+      </c>
+      <c r="C303" t="n">
+        <v>877</v>
+      </c>
+      <c r="D303" t="n">
+        <v>877</v>
+      </c>
+      <c r="E303" t="n">
+        <v>876</v>
+      </c>
+      <c r="F303" t="n">
+        <v>38.0163</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-34210.62016841809</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>877</v>
+      </c>
+      <c r="C304" t="n">
+        <v>878</v>
+      </c>
+      <c r="D304" t="n">
+        <v>878</v>
+      </c>
+      <c r="E304" t="n">
+        <v>877</v>
+      </c>
+      <c r="F304" t="n">
+        <v>232.67</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-33977.95016841809</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>877</v>
+      </c>
+      <c r="C305" t="n">
+        <v>877</v>
+      </c>
+      <c r="D305" t="n">
+        <v>877</v>
+      </c>
+      <c r="E305" t="n">
+        <v>877</v>
+      </c>
+      <c r="F305" t="n">
+        <v>336.4</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-34314.35016841809</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>872</v>
+      </c>
+      <c r="C306" t="n">
+        <v>872</v>
+      </c>
+      <c r="D306" t="n">
+        <v>872</v>
+      </c>
+      <c r="E306" t="n">
+        <v>872</v>
+      </c>
+      <c r="F306" t="n">
+        <v>21.1654</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-34335.51556841809</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>878</v>
+      </c>
+      <c r="C307" t="n">
+        <v>880</v>
+      </c>
+      <c r="D307" t="n">
+        <v>880</v>
+      </c>
+      <c r="E307" t="n">
+        <v>878</v>
+      </c>
+      <c r="F307" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-34277.41556841809</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>883</v>
+      </c>
+      <c r="C308" t="n">
+        <v>883</v>
+      </c>
+      <c r="D308" t="n">
+        <v>883</v>
+      </c>
+      <c r="E308" t="n">
+        <v>883</v>
+      </c>
+      <c r="F308" t="n">
+        <v>302.1679</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-33975.24766841809</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>879</v>
+      </c>
+      <c r="C309" t="n">
+        <v>879</v>
+      </c>
+      <c r="D309" t="n">
+        <v>879</v>
+      </c>
+      <c r="E309" t="n">
+        <v>879</v>
+      </c>
+      <c r="F309" t="n">
+        <v>13.1262</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-33988.37386841809</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>879</v>
+      </c>
+      <c r="C310" t="n">
+        <v>876</v>
+      </c>
+      <c r="D310" t="n">
+        <v>879</v>
+      </c>
+      <c r="E310" t="n">
+        <v>876</v>
+      </c>
+      <c r="F310" t="n">
+        <v>38.0926</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-34026.46646841809</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>876</v>
+      </c>
+      <c r="C311" t="n">
+        <v>876</v>
+      </c>
+      <c r="D311" t="n">
+        <v>876</v>
+      </c>
+      <c r="E311" t="n">
+        <v>876</v>
+      </c>
+      <c r="F311" t="n">
+        <v>150.69</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-34026.46646841809</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>876</v>
+      </c>
+      <c r="C312" t="n">
+        <v>879</v>
+      </c>
+      <c r="D312" t="n">
+        <v>879</v>
+      </c>
+      <c r="E312" t="n">
+        <v>876</v>
+      </c>
+      <c r="F312" t="n">
+        <v>81.74930000000001</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-33944.71716841809</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>875</v>
+      </c>
+      <c r="C313" t="n">
+        <v>875</v>
+      </c>
+      <c r="D313" t="n">
+        <v>875</v>
+      </c>
+      <c r="E313" t="n">
+        <v>875</v>
+      </c>
+      <c r="F313" t="n">
+        <v>3.8346</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-33948.55176841809</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>875</v>
+      </c>
+      <c r="C314" t="n">
+        <v>875</v>
+      </c>
+      <c r="D314" t="n">
+        <v>875</v>
+      </c>
+      <c r="E314" t="n">
+        <v>875</v>
+      </c>
+      <c r="F314" t="n">
+        <v>10</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-33948.55176841809</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>875</v>
+      </c>
+      <c r="J314" t="n">
+        <v>875</v>
+      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>873</v>
+      </c>
+      <c r="C315" t="n">
+        <v>866</v>
+      </c>
+      <c r="D315" t="n">
+        <v>873</v>
+      </c>
+      <c r="E315" t="n">
+        <v>866</v>
+      </c>
+      <c r="F315" t="n">
+        <v>10048.6117</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-43997.16346841809</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>875</v>
+      </c>
+      <c r="J315" t="n">
+        <v>875</v>
+      </c>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>873</v>
-      </c>
-      <c r="C221" t="n">
-        <v>873</v>
-      </c>
-      <c r="D221" t="n">
-        <v>873</v>
-      </c>
-      <c r="E221" t="n">
-        <v>873</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-9288.347568418092</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>868</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>871</v>
-      </c>
-      <c r="C222" t="n">
-        <v>871</v>
-      </c>
-      <c r="D222" t="n">
-        <v>871</v>
-      </c>
-      <c r="E222" t="n">
-        <v>871</v>
-      </c>
-      <c r="F222" t="n">
-        <v>18</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-9306.347568418092</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>873</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>871</v>
-      </c>
-      <c r="C223" t="n">
-        <v>872</v>
-      </c>
-      <c r="D223" t="n">
-        <v>872</v>
-      </c>
-      <c r="E223" t="n">
-        <v>871</v>
-      </c>
-      <c r="F223" t="n">
-        <v>37</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-9269.347568418092</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>871</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>869</v>
-      </c>
-      <c r="C224" t="n">
-        <v>872</v>
-      </c>
-      <c r="D224" t="n">
-        <v>872</v>
-      </c>
-      <c r="E224" t="n">
-        <v>869</v>
-      </c>
-      <c r="F224" t="n">
-        <v>59.9213</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-9269.347568418092</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>872</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>869</v>
-      </c>
-      <c r="C225" t="n">
-        <v>869</v>
-      </c>
-      <c r="D225" t="n">
-        <v>869</v>
-      </c>
-      <c r="E225" t="n">
-        <v>869</v>
-      </c>
-      <c r="F225" t="n">
-        <v>226.7573</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-9496.104868418091</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>872</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>870</v>
-      </c>
-      <c r="C226" t="n">
-        <v>872</v>
-      </c>
-      <c r="D226" t="n">
-        <v>872</v>
-      </c>
-      <c r="E226" t="n">
-        <v>870</v>
-      </c>
-      <c r="F226" t="n">
-        <v>988.071</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-8508.033868418092</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>869</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>870</v>
-      </c>
-      <c r="C227" t="n">
-        <v>870</v>
-      </c>
-      <c r="D227" t="n">
-        <v>870</v>
-      </c>
-      <c r="E227" t="n">
-        <v>870</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1521.99</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-10030.02386841809</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>872</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>870</v>
-      </c>
-      <c r="C228" t="n">
-        <v>870</v>
-      </c>
-      <c r="D228" t="n">
-        <v>870</v>
-      </c>
-      <c r="E228" t="n">
-        <v>870</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1367.6138</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-10030.02386841809</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>870</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>876</v>
-      </c>
-      <c r="C229" t="n">
-        <v>876</v>
-      </c>
-      <c r="D229" t="n">
-        <v>876</v>
-      </c>
-      <c r="E229" t="n">
-        <v>876</v>
-      </c>
-      <c r="F229" t="n">
-        <v>1</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-10029.02386841809</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>870</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>876</v>
-      </c>
-      <c r="C230" t="n">
-        <v>871</v>
-      </c>
-      <c r="D230" t="n">
-        <v>876</v>
-      </c>
-      <c r="E230" t="n">
-        <v>870</v>
-      </c>
-      <c r="F230" t="n">
-        <v>739.1374</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-10768.16126841809</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>876</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>874</v>
-      </c>
-      <c r="C231" t="n">
-        <v>874</v>
-      </c>
-      <c r="D231" t="n">
-        <v>874</v>
-      </c>
-      <c r="E231" t="n">
-        <v>874</v>
-      </c>
-      <c r="F231" t="n">
-        <v>184.3011</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-10583.86016841809</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>871</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>873</v>
-      </c>
-      <c r="C232" t="n">
-        <v>874</v>
-      </c>
-      <c r="D232" t="n">
-        <v>874</v>
-      </c>
-      <c r="E232" t="n">
-        <v>873</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1342.4899</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-10583.86016841809</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>874</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>873</v>
-      </c>
-      <c r="C233" t="n">
-        <v>873</v>
-      </c>
-      <c r="D233" t="n">
-        <v>873</v>
-      </c>
-      <c r="E233" t="n">
-        <v>873</v>
-      </c>
-      <c r="F233" t="n">
-        <v>19.7228</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-10603.58296841809</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>874</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>873</v>
-      </c>
-      <c r="C234" t="n">
-        <v>873</v>
-      </c>
-      <c r="D234" t="n">
-        <v>873</v>
-      </c>
-      <c r="E234" t="n">
-        <v>873</v>
-      </c>
-      <c r="F234" t="n">
-        <v>468.45</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-10603.58296841809</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>873</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>873</v>
-      </c>
-      <c r="C235" t="n">
-        <v>874</v>
-      </c>
-      <c r="D235" t="n">
-        <v>874</v>
-      </c>
-      <c r="E235" t="n">
-        <v>873</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1022.6516</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-9580.931368418091</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>873</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>873</v>
-      </c>
-      <c r="C236" t="n">
-        <v>873</v>
-      </c>
-      <c r="D236" t="n">
-        <v>873</v>
-      </c>
-      <c r="E236" t="n">
-        <v>873</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1341.8181</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-10922.74946841809</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>874</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>874</v>
-      </c>
-      <c r="C237" t="n">
-        <v>875</v>
-      </c>
-      <c r="D237" t="n">
-        <v>875</v>
-      </c>
-      <c r="E237" t="n">
-        <v>874</v>
-      </c>
-      <c r="F237" t="n">
-        <v>270</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-10652.74946841809</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>873</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>873</v>
-      </c>
-      <c r="C238" t="n">
-        <v>871</v>
-      </c>
-      <c r="D238" t="n">
-        <v>873</v>
-      </c>
-      <c r="E238" t="n">
-        <v>871</v>
-      </c>
-      <c r="F238" t="n">
-        <v>22.3786</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-10675.12806841809</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>875</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>871</v>
-      </c>
-      <c r="C239" t="n">
-        <v>871</v>
-      </c>
-      <c r="D239" t="n">
-        <v>871</v>
-      </c>
-      <c r="E239" t="n">
-        <v>871</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1350.5715</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-10675.12806841809</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>871</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>871</v>
-      </c>
-      <c r="C240" t="n">
-        <v>871</v>
-      </c>
-      <c r="D240" t="n">
-        <v>871</v>
-      </c>
-      <c r="E240" t="n">
-        <v>871</v>
-      </c>
-      <c r="F240" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-10675.12806841809</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>871</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>871</v>
-      </c>
-      <c r="C241" t="n">
-        <v>871</v>
-      </c>
-      <c r="D241" t="n">
-        <v>871</v>
-      </c>
-      <c r="E241" t="n">
-        <v>871</v>
-      </c>
-      <c r="F241" t="n">
-        <v>22.8125</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-10675.12806841809</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>871</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>879</v>
-      </c>
-      <c r="C242" t="n">
-        <v>882</v>
-      </c>
-      <c r="D242" t="n">
-        <v>882</v>
-      </c>
-      <c r="E242" t="n">
-        <v>879</v>
-      </c>
-      <c r="F242" t="n">
-        <v>269.32</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-10405.80806841809</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>871</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>887</v>
-      </c>
-      <c r="C243" t="n">
-        <v>878</v>
-      </c>
-      <c r="D243" t="n">
-        <v>887</v>
-      </c>
-      <c r="E243" t="n">
-        <v>878</v>
-      </c>
-      <c r="F243" t="n">
-        <v>61</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-10466.80806841809</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>882</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>878</v>
-      </c>
-      <c r="C244" t="n">
-        <v>885</v>
-      </c>
-      <c r="D244" t="n">
-        <v>887</v>
-      </c>
-      <c r="E244" t="n">
-        <v>875</v>
-      </c>
-      <c r="F244" t="n">
-        <v>490.97</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-9975.838068418092</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>874</v>
-      </c>
-      <c r="C245" t="n">
-        <v>879</v>
-      </c>
-      <c r="D245" t="n">
-        <v>879</v>
-      </c>
-      <c r="E245" t="n">
-        <v>874</v>
-      </c>
-      <c r="F245" t="n">
-        <v>66</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-10041.83806841809</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>873</v>
-      </c>
-      <c r="C246" t="n">
-        <v>874</v>
-      </c>
-      <c r="D246" t="n">
-        <v>875</v>
-      </c>
-      <c r="E246" t="n">
-        <v>870</v>
-      </c>
-      <c r="F246" t="n">
-        <v>3219.6091</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-13261.44716841809</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>879</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>870</v>
-      </c>
-      <c r="C247" t="n">
-        <v>874</v>
-      </c>
-      <c r="D247" t="n">
-        <v>874</v>
-      </c>
-      <c r="E247" t="n">
-        <v>870</v>
-      </c>
-      <c r="F247" t="n">
-        <v>60.4028</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-13261.44716841809</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>874</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>873</v>
-      </c>
-      <c r="C248" t="n">
-        <v>873</v>
-      </c>
-      <c r="D248" t="n">
-        <v>873</v>
-      </c>
-      <c r="E248" t="n">
-        <v>873</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-13262.44716841809</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>874</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>876</v>
-      </c>
-      <c r="C249" t="n">
-        <v>876</v>
-      </c>
-      <c r="D249" t="n">
-        <v>876</v>
-      </c>
-      <c r="E249" t="n">
-        <v>876</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-13261.44716841809</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>873</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>867</v>
-      </c>
-      <c r="C250" t="n">
-        <v>867</v>
-      </c>
-      <c r="D250" t="n">
-        <v>867</v>
-      </c>
-      <c r="E250" t="n">
-        <v>867</v>
-      </c>
-      <c r="F250" t="n">
-        <v>11.749</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-13273.19616841809</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>876</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>867</v>
-      </c>
-      <c r="C251" t="n">
-        <v>867</v>
-      </c>
-      <c r="D251" t="n">
-        <v>867</v>
-      </c>
-      <c r="E251" t="n">
-        <v>867</v>
-      </c>
-      <c r="F251" t="n">
-        <v>65.051</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-13273.19616841809</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>867</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>865</v>
-      </c>
-      <c r="C252" t="n">
-        <v>864</v>
-      </c>
-      <c r="D252" t="n">
-        <v>865</v>
-      </c>
-      <c r="E252" t="n">
-        <v>864</v>
-      </c>
-      <c r="F252" t="n">
-        <v>3961.4264</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-17234.62256841809</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>867</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>872</v>
-      </c>
-      <c r="C253" t="n">
-        <v>872</v>
-      </c>
-      <c r="D253" t="n">
-        <v>872</v>
-      </c>
-      <c r="E253" t="n">
-        <v>872</v>
-      </c>
-      <c r="F253" t="n">
-        <v>2</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-17232.62256841809</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>864</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>872</v>
-      </c>
-      <c r="C254" t="n">
-        <v>873</v>
-      </c>
-      <c r="D254" t="n">
-        <v>873</v>
-      </c>
-      <c r="E254" t="n">
-        <v>872</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-16232.62256841809</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>872</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>867</v>
-      </c>
-      <c r="C255" t="n">
-        <v>864</v>
-      </c>
-      <c r="D255" t="n">
-        <v>867</v>
-      </c>
-      <c r="E255" t="n">
-        <v>864</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1036.8788</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-17269.50136841809</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>873</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>872</v>
-      </c>
-      <c r="C256" t="n">
-        <v>887</v>
-      </c>
-      <c r="D256" t="n">
-        <v>887</v>
-      </c>
-      <c r="E256" t="n">
-        <v>871</v>
-      </c>
-      <c r="F256" t="n">
-        <v>2440</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-14829.50136841809</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>864</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>884</v>
-      </c>
-      <c r="C257" t="n">
-        <v>884</v>
-      </c>
-      <c r="D257" t="n">
-        <v>885</v>
-      </c>
-      <c r="E257" t="n">
-        <v>884</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1788.4</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-16617.90136841809</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>887</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>880</v>
-      </c>
-      <c r="C258" t="n">
-        <v>880</v>
-      </c>
-      <c r="D258" t="n">
-        <v>880</v>
-      </c>
-      <c r="E258" t="n">
-        <v>879</v>
-      </c>
-      <c r="F258" t="n">
-        <v>596.12</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-17214.02136841809</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>884</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>878</v>
-      </c>
-      <c r="C259" t="n">
-        <v>878</v>
-      </c>
-      <c r="D259" t="n">
-        <v>878</v>
-      </c>
-      <c r="E259" t="n">
-        <v>878</v>
-      </c>
-      <c r="F259" t="n">
-        <v>628.21</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-17842.23136841809</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>880</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>882</v>
-      </c>
-      <c r="C260" t="n">
-        <v>882</v>
-      </c>
-      <c r="D260" t="n">
-        <v>882</v>
-      </c>
-      <c r="E260" t="n">
-        <v>882</v>
-      </c>
-      <c r="F260" t="n">
-        <v>383.6889</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-17458.54246841809</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>878</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>887</v>
-      </c>
-      <c r="C261" t="n">
-        <v>887</v>
-      </c>
-      <c r="D261" t="n">
-        <v>887</v>
-      </c>
-      <c r="E261" t="n">
-        <v>887</v>
-      </c>
-      <c r="F261" t="n">
-        <v>1508.5647</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-15949.97776841809</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>882</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>877</v>
-      </c>
-      <c r="C262" t="n">
-        <v>877</v>
-      </c>
-      <c r="D262" t="n">
-        <v>877</v>
-      </c>
-      <c r="E262" t="n">
-        <v>877</v>
-      </c>
-      <c r="F262" t="n">
-        <v>418.0128</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-16367.99056841809</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>887</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>884</v>
-      </c>
-      <c r="C263" t="n">
-        <v>892</v>
-      </c>
-      <c r="D263" t="n">
-        <v>892</v>
-      </c>
-      <c r="E263" t="n">
-        <v>884</v>
-      </c>
-      <c r="F263" t="n">
-        <v>686.4</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-15681.59056841809</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>877</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>886</v>
-      </c>
-      <c r="C264" t="n">
-        <v>888</v>
-      </c>
-      <c r="D264" t="n">
-        <v>888</v>
-      </c>
-      <c r="E264" t="n">
-        <v>885</v>
-      </c>
-      <c r="F264" t="n">
-        <v>296.0977</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-15977.68826841809</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>892</v>
-      </c>
-      <c r="C265" t="n">
-        <v>892</v>
-      </c>
-      <c r="D265" t="n">
-        <v>892</v>
-      </c>
-      <c r="E265" t="n">
-        <v>892</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-15976.68826841809</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>888</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>892</v>
-      </c>
-      <c r="C266" t="n">
-        <v>893</v>
-      </c>
-      <c r="D266" t="n">
-        <v>893</v>
-      </c>
-      <c r="E266" t="n">
-        <v>892</v>
-      </c>
-      <c r="F266" t="n">
-        <v>1033.87</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-14942.81826841809</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>892</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>893</v>
-      </c>
-      <c r="C267" t="n">
-        <v>895</v>
-      </c>
-      <c r="D267" t="n">
-        <v>895</v>
-      </c>
-      <c r="E267" t="n">
-        <v>893</v>
-      </c>
-      <c r="F267" t="n">
-        <v>231.6611</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-14711.15716841809</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>893</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>895</v>
-      </c>
-      <c r="C268" t="n">
-        <v>892</v>
-      </c>
-      <c r="D268" t="n">
-        <v>895</v>
-      </c>
-      <c r="E268" t="n">
-        <v>892</v>
-      </c>
-      <c r="F268" t="n">
-        <v>1407.9162</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-16119.07336841809</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>895</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>894</v>
-      </c>
-      <c r="C269" t="n">
-        <v>895</v>
-      </c>
-      <c r="D269" t="n">
-        <v>895</v>
-      </c>
-      <c r="E269" t="n">
-        <v>890</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1052.2626</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-15066.81076841809</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>895</v>
-      </c>
-      <c r="C270" t="n">
-        <v>895</v>
-      </c>
-      <c r="D270" t="n">
-        <v>895</v>
-      </c>
-      <c r="E270" t="n">
-        <v>895</v>
-      </c>
-      <c r="F270" t="n">
-        <v>5</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-15066.81076841809</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>895</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>895</v>
-      </c>
-      <c r="C271" t="n">
-        <v>897</v>
-      </c>
-      <c r="D271" t="n">
-        <v>899</v>
-      </c>
-      <c r="E271" t="n">
-        <v>895</v>
-      </c>
-      <c r="F271" t="n">
-        <v>1164.4174</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-13902.39336841809</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>891</v>
-      </c>
-      <c r="C272" t="n">
-        <v>891</v>
-      </c>
-      <c r="D272" t="n">
-        <v>891</v>
-      </c>
-      <c r="E272" t="n">
-        <v>891</v>
-      </c>
-      <c r="F272" t="n">
-        <v>745.3837</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-14647.77706841809</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>897</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>891</v>
-      </c>
-      <c r="C273" t="n">
-        <v>891</v>
-      </c>
-      <c r="D273" t="n">
-        <v>891</v>
-      </c>
-      <c r="E273" t="n">
-        <v>891</v>
-      </c>
-      <c r="F273" t="n">
-        <v>17.409</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-14647.77706841809</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>891</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>892</v>
-      </c>
-      <c r="C274" t="n">
-        <v>893</v>
-      </c>
-      <c r="D274" t="n">
-        <v>893</v>
-      </c>
-      <c r="E274" t="n">
-        <v>892</v>
-      </c>
-      <c r="F274" t="n">
-        <v>994.0599999999999</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-13653.71706841809</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>891</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>888</v>
-      </c>
-      <c r="C275" t="n">
-        <v>888</v>
-      </c>
-      <c r="D275" t="n">
-        <v>888</v>
-      </c>
-      <c r="E275" t="n">
-        <v>888</v>
-      </c>
-      <c r="F275" t="n">
-        <v>544</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-14197.71706841809</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>884</v>
-      </c>
-      <c r="C276" t="n">
-        <v>881</v>
-      </c>
-      <c r="D276" t="n">
-        <v>884</v>
-      </c>
-      <c r="E276" t="n">
-        <v>881</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1382.0874</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-15579.80446841809</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>888</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>880</v>
-      </c>
-      <c r="C277" t="n">
-        <v>880</v>
-      </c>
-      <c r="D277" t="n">
-        <v>880</v>
-      </c>
-      <c r="E277" t="n">
-        <v>880</v>
-      </c>
-      <c r="F277" t="n">
-        <v>5</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-15584.80446841809</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>881</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>880</v>
-      </c>
-      <c r="C278" t="n">
-        <v>879</v>
-      </c>
-      <c r="D278" t="n">
-        <v>880</v>
-      </c>
-      <c r="E278" t="n">
-        <v>879</v>
-      </c>
-      <c r="F278" t="n">
-        <v>5</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-15589.80446841809</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>880</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>880</v>
-      </c>
-      <c r="C279" t="n">
-        <v>880</v>
-      </c>
-      <c r="D279" t="n">
-        <v>880</v>
-      </c>
-      <c r="E279" t="n">
-        <v>880</v>
-      </c>
-      <c r="F279" t="n">
-        <v>1</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-15588.80446841809</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>879</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>877</v>
-      </c>
-      <c r="C280" t="n">
-        <v>877</v>
-      </c>
-      <c r="D280" t="n">
-        <v>877</v>
-      </c>
-      <c r="E280" t="n">
-        <v>877</v>
-      </c>
-      <c r="F280" t="n">
-        <v>4</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-15592.80446841809</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>880</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>869</v>
-      </c>
-      <c r="C281" t="n">
-        <v>869</v>
-      </c>
-      <c r="D281" t="n">
-        <v>869</v>
-      </c>
-      <c r="E281" t="n">
-        <v>869</v>
-      </c>
-      <c r="F281" t="n">
-        <v>1523.1163</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-17115.92076841809</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>877</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>868</v>
-      </c>
-      <c r="C282" t="n">
-        <v>864</v>
-      </c>
-      <c r="D282" t="n">
-        <v>868</v>
-      </c>
-      <c r="E282" t="n">
-        <v>864</v>
-      </c>
-      <c r="F282" t="n">
-        <v>7256.8831</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-24372.80386841809</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>869</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>875</v>
-      </c>
-      <c r="C283" t="n">
-        <v>875</v>
-      </c>
-      <c r="D283" t="n">
-        <v>875</v>
-      </c>
-      <c r="E283" t="n">
-        <v>875</v>
-      </c>
-      <c r="F283" t="n">
-        <v>35.7027</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-24337.10116841809</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>864</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>875</v>
-      </c>
-      <c r="C284" t="n">
-        <v>875</v>
-      </c>
-      <c r="D284" t="n">
-        <v>875</v>
-      </c>
-      <c r="E284" t="n">
-        <v>875</v>
-      </c>
-      <c r="F284" t="n">
-        <v>35.1902</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-24337.10116841809</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>875</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>875</v>
-      </c>
-      <c r="C285" t="n">
-        <v>875</v>
-      </c>
-      <c r="D285" t="n">
-        <v>875</v>
-      </c>
-      <c r="E285" t="n">
-        <v>875</v>
-      </c>
-      <c r="F285" t="n">
-        <v>754.6953999999999</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-24337.10116841809</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>875</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>876</v>
-      </c>
-      <c r="C286" t="n">
-        <v>876</v>
-      </c>
-      <c r="D286" t="n">
-        <v>876</v>
-      </c>
-      <c r="E286" t="n">
-        <v>876</v>
-      </c>
-      <c r="F286" t="n">
-        <v>73.2693</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-24263.83186841809</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>875</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>879</v>
-      </c>
-      <c r="C287" t="n">
-        <v>879</v>
-      </c>
-      <c r="D287" t="n">
-        <v>879</v>
-      </c>
-      <c r="E287" t="n">
-        <v>879</v>
-      </c>
-      <c r="F287" t="n">
-        <v>1</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-24262.83186841809</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>876</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>875</v>
-      </c>
-      <c r="C288" t="n">
-        <v>874</v>
-      </c>
-      <c r="D288" t="n">
-        <v>876</v>
-      </c>
-      <c r="E288" t="n">
-        <v>860</v>
-      </c>
-      <c r="F288" t="n">
-        <v>7996.957</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-32259.78886841809</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>879</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>877</v>
-      </c>
-      <c r="C289" t="n">
-        <v>878</v>
-      </c>
-      <c r="D289" t="n">
-        <v>878</v>
-      </c>
-      <c r="E289" t="n">
-        <v>877</v>
-      </c>
-      <c r="F289" t="n">
-        <v>857.9351</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-31401.85376841809</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>877</v>
-      </c>
-      <c r="C290" t="n">
-        <v>877</v>
-      </c>
-      <c r="D290" t="n">
-        <v>877</v>
-      </c>
-      <c r="E290" t="n">
-        <v>877</v>
-      </c>
-      <c r="F290" t="n">
-        <v>762.0599</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-32163.91366841809</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>878</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>877</v>
-      </c>
-      <c r="C291" t="n">
-        <v>877</v>
-      </c>
-      <c r="D291" t="n">
-        <v>877</v>
-      </c>
-      <c r="E291" t="n">
-        <v>877</v>
-      </c>
-      <c r="F291" t="n">
-        <v>247.5508</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-32163.91366841809</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>872</v>
-      </c>
-      <c r="C292" t="n">
-        <v>871</v>
-      </c>
-      <c r="D292" t="n">
-        <v>872</v>
-      </c>
-      <c r="E292" t="n">
-        <v>871</v>
-      </c>
-      <c r="F292" t="n">
-        <v>2908.8757</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-35072.78936841809</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>871</v>
-      </c>
-      <c r="C293" t="n">
-        <v>871</v>
-      </c>
-      <c r="D293" t="n">
-        <v>871</v>
-      </c>
-      <c r="E293" t="n">
-        <v>871</v>
-      </c>
-      <c r="F293" t="n">
-        <v>2.0001</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-35072.78936841809</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>871</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>871</v>
-      </c>
-      <c r="C294" t="n">
-        <v>871</v>
-      </c>
-      <c r="D294" t="n">
-        <v>871</v>
-      </c>
-      <c r="E294" t="n">
-        <v>871</v>
-      </c>
-      <c r="F294" t="n">
-        <v>182.5864</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-35072.78936841809</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>871</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>875</v>
-      </c>
-      <c r="C295" t="n">
-        <v>875</v>
-      </c>
-      <c r="D295" t="n">
-        <v>875</v>
-      </c>
-      <c r="E295" t="n">
-        <v>875</v>
-      </c>
-      <c r="F295" t="n">
-        <v>2</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-35070.78936841809</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>871</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>877</v>
-      </c>
-      <c r="C296" t="n">
-        <v>877</v>
-      </c>
-      <c r="D296" t="n">
-        <v>877</v>
-      </c>
-      <c r="E296" t="n">
-        <v>877</v>
-      </c>
-      <c r="F296" t="n">
-        <v>103.03</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-34967.75936841809</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>875</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>877</v>
-      </c>
-      <c r="C297" t="n">
-        <v>877</v>
-      </c>
-      <c r="D297" t="n">
-        <v>877</v>
-      </c>
-      <c r="E297" t="n">
-        <v>877</v>
-      </c>
-      <c r="F297" t="n">
-        <v>61.8259</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-34967.75936841809</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>877</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>879</v>
-      </c>
-      <c r="C298" t="n">
-        <v>879</v>
-      </c>
-      <c r="D298" t="n">
-        <v>879</v>
-      </c>
-      <c r="E298" t="n">
-        <v>879</v>
-      </c>
-      <c r="F298" t="n">
-        <v>36.6118</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-34931.14756841809</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>877</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>880</v>
-      </c>
-      <c r="C299" t="n">
-        <v>880</v>
-      </c>
-      <c r="D299" t="n">
-        <v>880</v>
-      </c>
-      <c r="E299" t="n">
-        <v>880</v>
-      </c>
-      <c r="F299" t="n">
-        <v>388.4173</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-34542.73026841809</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>879</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>880</v>
-      </c>
-      <c r="C300" t="n">
-        <v>880</v>
-      </c>
-      <c r="D300" t="n">
-        <v>880</v>
-      </c>
-      <c r="E300" t="n">
-        <v>880</v>
-      </c>
-      <c r="F300" t="n">
-        <v>548.6306</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-34542.73026841809</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>880</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>871</v>
-      </c>
-      <c r="C301" t="n">
-        <v>871</v>
-      </c>
-      <c r="D301" t="n">
-        <v>871</v>
-      </c>
-      <c r="E301" t="n">
-        <v>871</v>
-      </c>
-      <c r="F301" t="n">
-        <v>395.774</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-34938.50426841809</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>880</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>872</v>
-      </c>
-      <c r="C302" t="n">
-        <v>875</v>
-      </c>
-      <c r="D302" t="n">
-        <v>875</v>
-      </c>
-      <c r="E302" t="n">
-        <v>871</v>
-      </c>
-      <c r="F302" t="n">
-        <v>689.8678</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-34248.63646841809</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>871</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>876</v>
-      </c>
-      <c r="C303" t="n">
-        <v>877</v>
-      </c>
-      <c r="D303" t="n">
-        <v>877</v>
-      </c>
-      <c r="E303" t="n">
-        <v>876</v>
-      </c>
-      <c r="F303" t="n">
-        <v>38.0163</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-34210.62016841809</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>875</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>877</v>
-      </c>
-      <c r="C304" t="n">
-        <v>878</v>
-      </c>
-      <c r="D304" t="n">
-        <v>878</v>
-      </c>
-      <c r="E304" t="n">
-        <v>877</v>
-      </c>
-      <c r="F304" t="n">
-        <v>232.67</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-33977.95016841809</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>877</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>877</v>
-      </c>
-      <c r="C305" t="n">
-        <v>877</v>
-      </c>
-      <c r="D305" t="n">
-        <v>877</v>
-      </c>
-      <c r="E305" t="n">
-        <v>877</v>
-      </c>
-      <c r="F305" t="n">
-        <v>336.4</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-34314.35016841809</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>878</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>872</v>
-      </c>
-      <c r="C306" t="n">
-        <v>872</v>
-      </c>
-      <c r="D306" t="n">
-        <v>872</v>
-      </c>
-      <c r="E306" t="n">
-        <v>872</v>
-      </c>
-      <c r="F306" t="n">
-        <v>21.1654</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-34335.51556841809</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>877</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>878</v>
-      </c>
-      <c r="C307" t="n">
-        <v>880</v>
-      </c>
-      <c r="D307" t="n">
-        <v>880</v>
-      </c>
-      <c r="E307" t="n">
-        <v>878</v>
-      </c>
-      <c r="F307" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-34277.41556841809</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>872</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>883</v>
-      </c>
-      <c r="C308" t="n">
-        <v>883</v>
-      </c>
-      <c r="D308" t="n">
-        <v>883</v>
-      </c>
-      <c r="E308" t="n">
-        <v>883</v>
-      </c>
-      <c r="F308" t="n">
-        <v>302.1679</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-33975.24766841809</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>880</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>879</v>
-      </c>
-      <c r="C309" t="n">
-        <v>879</v>
-      </c>
-      <c r="D309" t="n">
-        <v>879</v>
-      </c>
-      <c r="E309" t="n">
-        <v>879</v>
-      </c>
-      <c r="F309" t="n">
-        <v>13.1262</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-33988.37386841809</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>883</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>879</v>
-      </c>
-      <c r="C310" t="n">
-        <v>876</v>
-      </c>
-      <c r="D310" t="n">
-        <v>879</v>
-      </c>
-      <c r="E310" t="n">
-        <v>876</v>
-      </c>
-      <c r="F310" t="n">
-        <v>38.0926</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-34026.46646841809</v>
-      </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>879</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>876</v>
-      </c>
-      <c r="C311" t="n">
-        <v>876</v>
-      </c>
-      <c r="D311" t="n">
-        <v>876</v>
-      </c>
-      <c r="E311" t="n">
-        <v>876</v>
-      </c>
-      <c r="F311" t="n">
-        <v>150.69</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-34026.46646841809</v>
-      </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>876</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>876</v>
-      </c>
-      <c r="C312" t="n">
-        <v>879</v>
-      </c>
-      <c r="D312" t="n">
-        <v>879</v>
-      </c>
-      <c r="E312" t="n">
-        <v>876</v>
-      </c>
-      <c r="F312" t="n">
-        <v>81.74930000000001</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-33944.71716841809</v>
-      </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>876</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>875</v>
-      </c>
-      <c r="C313" t="n">
-        <v>875</v>
-      </c>
-      <c r="D313" t="n">
-        <v>875</v>
-      </c>
-      <c r="E313" t="n">
-        <v>875</v>
-      </c>
-      <c r="F313" t="n">
-        <v>3.8346</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-33948.55176841809</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>879</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>875</v>
-      </c>
-      <c r="C314" t="n">
-        <v>875</v>
-      </c>
-      <c r="D314" t="n">
-        <v>875</v>
-      </c>
-      <c r="E314" t="n">
-        <v>875</v>
-      </c>
-      <c r="F314" t="n">
-        <v>10</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-33948.55176841809</v>
-      </c>
-      <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>875</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>873</v>
-      </c>
-      <c r="C315" t="n">
-        <v>866</v>
-      </c>
-      <c r="D315" t="n">
-        <v>873</v>
-      </c>
-      <c r="E315" t="n">
-        <v>866</v>
-      </c>
-      <c r="F315" t="n">
-        <v>10048.6117</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-43997.16346841809</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>875</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11371,12 +10825,12 @@
         <v>-42894.67386841809</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>866</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>875</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11415,7 +10869,9 @@
       <c r="I317" t="n">
         <v>874</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>875</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11454,7 +10910,9 @@
       <c r="I318" t="n">
         <v>877</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>875</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11493,7 +10951,9 @@
       <c r="I319" t="n">
         <v>876</v>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>875</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11527,12 +10987,12 @@
         <v>-42307.02546841809</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>876</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>875</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11566,12 +11026,12 @@
         <v>-42329.31166841809</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>878</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>875</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11610,7 +11070,9 @@
       <c r="I322" t="n">
         <v>876</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>875</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11644,12 +11106,12 @@
         <v>-42323.51166841809</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>878</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>875</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11683,12 +11145,12 @@
         <v>-41690.32346841809</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>878</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>875</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11722,12 +11184,12 @@
         <v>-41690.32346841809</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>880</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>875</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11761,12 +11223,12 @@
         <v>-39923.89556841809</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>880</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>875</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11800,12 +11262,12 @@
         <v>-39179.29616841809</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>888</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>875</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11839,12 +11301,12 @@
         <v>-40316.96816841809</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>889</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>875</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11878,12 +11340,12 @@
         <v>-38572.66896841809</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>873</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>875</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11917,12 +11379,12 @@
         <v>-37991.45876841809</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>879</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>875</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11956,12 +11418,12 @@
         <v>-37563.84186841809</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>882</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>875</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11995,12 +11457,12 @@
         <v>-37527.54066841809</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>884</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>875</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12037,7 +11499,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>875</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12074,7 +11538,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>875</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12111,7 +11577,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>875</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12148,7 +11616,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>875</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12185,7 +11655,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>875</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12219,17 +11691,19 @@
         <v>-37685.27096841809</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>875</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L338" t="n">
-        <v>1</v>
+        <v>1.015571428571429</v>
       </c>
       <c r="M338" t="inlineStr"/>
     </row>
@@ -12256,17 +11730,11 @@
         <v>-39347.08676841808</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>893</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12295,15 +11763,11 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12332,15 +11796,11 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12369,15 +11829,11 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12406,15 +11862,11 @@
         <v>-38015.56056841808</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12443,17 +11895,11 @@
         <v>-39408.44206841809</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>896</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12482,15 +11928,11 @@
         <v>-40351.44206841809</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12519,17 +11961,11 @@
         <v>-38338.34656841808</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>893</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12558,17 +11994,11 @@
         <v>-38338.34656841808</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>896</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12597,15 +12027,11 @@
         <v>-40038.63186841809</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12634,15 +12060,11 @@
         <v>-40056.84396841808</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12671,17 +12093,11 @@
         <v>-41082.51766841808</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12710,17 +12126,11 @@
         <v>-39932.47386841808</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12749,17 +12159,11 @@
         <v>-40984.15386841809</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>892</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12792,11 +12196,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12825,17 +12225,11 @@
         <v>-38142.24016841809</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>893</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12864,15 +12258,11 @@
         <v>-36505.68596841809</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12901,15 +12291,11 @@
         <v>-36505.68596841809</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12938,15 +12324,11 @@
         <v>-36392.38596841809</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12975,15 +12357,11 @@
         <v>-38265.36086841809</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13012,15 +12390,11 @@
         <v>-39373.74826841809</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13049,15 +12423,11 @@
         <v>-40722.15146841809</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13086,15 +12456,11 @@
         <v>-40758.72886841809</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13123,15 +12489,11 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13160,15 +12522,11 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13197,15 +12555,11 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13234,15 +12588,15 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>894</v>
+      </c>
+      <c r="J365" t="n">
+        <v>894</v>
+      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13271,13 +12625,15 @@
         <v>-40226.05386841809</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>894</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L366" t="n">
@@ -13308,10 +12664,12 @@
         <v>-40226.05386841809</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>894</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13345,10 +12703,14 @@
         <v>-40221.25386841808</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>891</v>
+      </c>
+      <c r="J368" t="n">
+        <v>894</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13382,10 +12744,14 @@
         <v>-40221.25386841808</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>896</v>
+      </c>
+      <c r="J369" t="n">
+        <v>894</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13424,7 +12790,9 @@
       <c r="I370" t="n">
         <v>896</v>
       </c>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>894</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13463,7 +12831,9 @@
       <c r="I371" t="n">
         <v>896</v>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>894</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13502,7 +12872,9 @@
       <c r="I372" t="n">
         <v>901</v>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>894</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13536,10 +12908,12 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>894</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13573,10 +12947,12 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>894</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13610,10 +12986,12 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>894</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13647,10 +13025,12 @@
         <v>-39502.72676841808</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>894</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13684,17 +13064,19 @@
         <v>-39138.78676841808</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>894</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L377" t="n">
-        <v>1</v>
+        <v>1.007304250559284</v>
       </c>
       <c r="M377" t="inlineStr"/>
     </row>
@@ -13721,15 +13103,11 @@
         <v>-39138.78676841808</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13758,15 +13136,11 @@
         <v>-39052.04676841808</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13795,15 +13169,11 @@
         <v>-39052.04676841808</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13832,15 +13202,11 @@
         <v>-39016.35076841808</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13869,15 +13235,11 @@
         <v>-39110.56066841808</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13906,15 +13268,11 @@
         <v>-39216.43616841808</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13943,15 +13301,11 @@
         <v>-39145.31466841808</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13980,15 +13334,15 @@
         <v>-39132.54466841809</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>905</v>
+      </c>
+      <c r="J385" t="n">
+        <v>905</v>
+      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14017,13 +13371,15 @@
         <v>-39133.54466841809</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>905</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L386" t="n">
@@ -14054,13 +13410,15 @@
         <v>-39134.54466841809</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>905</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L387" t="n">
@@ -14091,13 +13449,17 @@
         <v>-39404.54466841809</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>903</v>
+      </c>
+      <c r="J388" t="n">
+        <v>905</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L388" t="n">
@@ -14128,10 +13490,14 @@
         <v>-39405.99466841808</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>900</v>
+      </c>
+      <c r="J389" t="n">
+        <v>905</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14165,10 +13531,14 @@
         <v>-39352.00466841809</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>899</v>
+      </c>
+      <c r="J390" t="n">
+        <v>905</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14207,7 +13577,9 @@
       <c r="I391" t="n">
         <v>906</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>905</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14241,10 +13613,14 @@
         <v>-41330.05616841809</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>907</v>
+      </c>
+      <c r="J392" t="n">
+        <v>905</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14283,7 +13659,9 @@
       <c r="I393" t="n">
         <v>898</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>905</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14322,7 +13700,9 @@
       <c r="I394" t="n">
         <v>898</v>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>905</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14361,7 +13741,9 @@
       <c r="I395" t="n">
         <v>901</v>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>905</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14395,10 +13777,14 @@
         <v>-36697.80136841808</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>907</v>
+      </c>
+      <c r="J396" t="n">
+        <v>905</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14432,10 +13818,14 @@
         <v>-36697.80136841808</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>909</v>
+      </c>
+      <c r="J397" t="n">
+        <v>905</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14469,10 +13859,14 @@
         <v>-37675.50006841808</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>909</v>
+      </c>
+      <c r="J398" t="n">
+        <v>905</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14506,10 +13900,14 @@
         <v>-37678.05006841809</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>905</v>
+      </c>
+      <c r="J399" t="n">
+        <v>905</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14543,10 +13941,14 @@
         <v>-37678.05006841809</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>904</v>
+      </c>
+      <c r="J400" t="n">
+        <v>905</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14558,6 +13960,6 @@
       <c r="M400" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest WTC.xlsx
+++ b/BackTest/2019-10-29 BackTest WTC.xlsx
@@ -451,7 +451,7 @@
         <v>6630.18350290154</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8749.07600290154</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>10564.21448108729</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>11141.29558108728</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>10934.46898108728</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>10196.31288108728</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>10196.31288108728</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>13765.15788108728</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>14689.20148108728</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>13456.70958108728</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>12216.77238108728</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>8112.110081087282</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>10665.65419775395</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>7002.601806087282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>4719.901713490827</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>4719.901713490827</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4336.096213490827</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4336.096213490827</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3032.294413490827</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>940.3331134908267</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-220.3349865091734</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2215.252413490827</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2268.592313490827</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2547.938813490827</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2295.135413490827</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3082.950513490827</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2251.812113490827</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5495.656013490827</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>4531.565313490827</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5551.692013490827</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5576.692013490827</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5093.692013490827</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>5093.692013490827</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>5103.692013490827</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>5053.692013490827</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>5474.692013490827</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>5439.692013490827</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>5448.692013490827</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>5014.769113490827</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4806.366813490828</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>6072.658213490828</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1408.149313490828</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>2842.195313490828</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1971.204913490827</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2900.576513490827</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1959.354842062256</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>841.9470420622561</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-450.3237579377439</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-2596.685057937744</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-6872.762557937744</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-6871.762557937744</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-5871.762557937744</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-5942.876257937744</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-6840.099757937744</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-6942.451857937744</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-6942.451857937744</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4076.149957937744</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4077.149957937744</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4078.149957937744</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4039.116257937744</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4040.116257937744</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4046.104257937744</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4046.104257937744</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4398.350557937743</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4410.000557937743</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-4417.880557937743</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-15976.68826841809</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-14942.81826841809</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-14711.15716841809</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-16119.07336841809</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-15066.81076841809</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-15066.81076841809</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-13902.39336841809</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-14647.77706841809</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-14647.77706841809</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-13653.71706841809</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-14197.71706841809</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-15579.80446841809</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10384,10 +10384,14 @@
         <v>-34210.62016841809</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>875</v>
+      </c>
+      <c r="J303" t="n">
+        <v>875</v>
+      </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
@@ -10417,11 +10421,19 @@
         <v>-33977.95016841809</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>877</v>
+      </c>
+      <c r="J304" t="n">
+        <v>875</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10465,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>875</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,10 +10501,14 @@
         <v>-34335.51556841809</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>877</v>
+      </c>
+      <c r="J306" t="n">
+        <v>877</v>
+      </c>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
@@ -10516,11 +10538,19 @@
         <v>-34277.41556841809</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>872</v>
+      </c>
+      <c r="J307" t="n">
+        <v>877</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +10582,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>877</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10648,10 +10684,14 @@
         <v>-34026.46646841809</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>876</v>
+      </c>
+      <c r="J311" t="n">
+        <v>876</v>
+      </c>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
@@ -10681,11 +10721,19 @@
         <v>-33944.71716841809</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>876</v>
+      </c>
+      <c r="J312" t="n">
+        <v>876</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10762,19 @@
         <v>-33948.55176841809</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>879</v>
+      </c>
+      <c r="J313" t="n">
+        <v>876</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10753,9 +10809,13 @@
         <v>875</v>
       </c>
       <c r="J314" t="n">
-        <v>875</v>
-      </c>
-      <c r="K314" t="inlineStr"/>
+        <v>876</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10790,11 +10850,11 @@
         <v>875</v>
       </c>
       <c r="J315" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L315" t="n">
@@ -10829,7 +10889,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -10864,13 +10924,11 @@
         <v>-42680.12406841809</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -10905,13 +10963,11 @@
         <v>-43107.02546841809</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -10946,13 +11002,11 @@
         <v>-43107.02546841809</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
         <v>876</v>
-      </c>
-      <c r="J319" t="n">
-        <v>875</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -10991,7 +11045,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11026,11 +11080,13 @@
         <v>-42329.31166841809</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>878</v>
+      </c>
       <c r="J321" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11071,7 +11127,7 @@
         <v>876</v>
       </c>
       <c r="J322" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11106,11 +11162,13 @@
         <v>-42323.51166841809</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>878</v>
+      </c>
       <c r="J323" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11145,11 +11203,13 @@
         <v>-41690.32346841809</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>878</v>
+      </c>
       <c r="J324" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11184,11 +11244,13 @@
         <v>-41690.32346841809</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>880</v>
+      </c>
       <c r="J325" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11223,11 +11285,13 @@
         <v>-39923.89556841809</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>880</v>
+      </c>
       <c r="J326" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11262,11 +11326,13 @@
         <v>-39179.29616841809</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>888</v>
+      </c>
       <c r="J327" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11301,11 +11367,13 @@
         <v>-40316.96816841809</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>889</v>
+      </c>
       <c r="J328" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11340,11 +11408,13 @@
         <v>-38572.66896841809</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>873</v>
+      </c>
       <c r="J329" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11379,11 +11449,13 @@
         <v>-37991.45876841809</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>879</v>
+      </c>
       <c r="J330" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11418,11 +11490,13 @@
         <v>-37563.84186841809</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>882</v>
+      </c>
       <c r="J331" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11457,11 +11531,13 @@
         <v>-37527.54066841809</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>884</v>
+      </c>
       <c r="J332" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11496,11 +11572,13 @@
         <v>-39267.66266841809</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>891</v>
+      </c>
       <c r="J333" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11535,11 +11613,13 @@
         <v>-39277.75026841809</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>890</v>
+      </c>
       <c r="J334" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11574,11 +11654,13 @@
         <v>-39243.99036841809</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>884</v>
+      </c>
       <c r="J335" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11613,11 +11695,13 @@
         <v>-39684.38086841809</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>894</v>
+      </c>
       <c r="J336" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11652,11 +11736,13 @@
         <v>-37729.38086841809</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>880</v>
+      </c>
       <c r="J337" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11691,19 +11777,21 @@
         <v>-37685.27096841809</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>891</v>
+      </c>
       <c r="J338" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L338" t="n">
-        <v>1.015571428571429</v>
+        <v>1</v>
       </c>
       <c r="M338" t="inlineStr"/>
     </row>
@@ -11730,11 +11818,19 @@
         <v>-39347.08676841808</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>893</v>
+      </c>
+      <c r="J339" t="n">
+        <v>876</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11763,11 +11859,19 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>892</v>
+      </c>
+      <c r="J340" t="n">
+        <v>876</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11796,11 +11900,19 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>894</v>
+      </c>
+      <c r="J341" t="n">
+        <v>876</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11829,11 +11941,19 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>894</v>
+      </c>
+      <c r="J342" t="n">
+        <v>876</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11862,11 +11982,19 @@
         <v>-38015.56056841808</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>894</v>
+      </c>
+      <c r="J343" t="n">
+        <v>876</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11895,11 +12023,19 @@
         <v>-39408.44206841809</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>896</v>
+      </c>
+      <c r="J344" t="n">
+        <v>876</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11928,11 +12064,19 @@
         <v>-40351.44206841809</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>895</v>
+      </c>
+      <c r="J345" t="n">
+        <v>876</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11961,11 +12105,19 @@
         <v>-38338.34656841808</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>893</v>
+      </c>
+      <c r="J346" t="n">
+        <v>876</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11994,11 +12146,19 @@
         <v>-38338.34656841808</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>896</v>
+      </c>
+      <c r="J347" t="n">
+        <v>876</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12027,11 +12187,19 @@
         <v>-40038.63186841809</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>896</v>
+      </c>
+      <c r="J348" t="n">
+        <v>876</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12060,11 +12228,19 @@
         <v>-40056.84396841808</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>895</v>
+      </c>
+      <c r="J349" t="n">
+        <v>876</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12093,11 +12269,19 @@
         <v>-41082.51766841808</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>889</v>
+      </c>
+      <c r="J350" t="n">
+        <v>876</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12126,11 +12310,19 @@
         <v>-39932.47386841808</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>888</v>
+      </c>
+      <c r="J351" t="n">
+        <v>876</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12159,11 +12351,19 @@
         <v>-40984.15386841809</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>892</v>
+      </c>
+      <c r="J352" t="n">
+        <v>876</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12192,11 +12392,19 @@
         <v>-40915.72896841809</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>891</v>
+      </c>
+      <c r="J353" t="n">
+        <v>876</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12225,11 +12433,19 @@
         <v>-38142.24016841809</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>893</v>
+      </c>
+      <c r="J354" t="n">
+        <v>876</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12258,11 +12474,19 @@
         <v>-36505.68596841809</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>898</v>
+      </c>
+      <c r="J355" t="n">
+        <v>876</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12291,11 +12515,19 @@
         <v>-36505.68596841809</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>899</v>
+      </c>
+      <c r="J356" t="n">
+        <v>876</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12324,11 +12556,19 @@
         <v>-36392.38596841809</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>899</v>
+      </c>
+      <c r="J357" t="n">
+        <v>876</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12357,11 +12597,19 @@
         <v>-38265.36086841809</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>900</v>
+      </c>
+      <c r="J358" t="n">
+        <v>876</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12390,11 +12638,19 @@
         <v>-39373.74826841809</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>898</v>
+      </c>
+      <c r="J359" t="n">
+        <v>876</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12423,11 +12679,19 @@
         <v>-40722.15146841809</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>897</v>
+      </c>
+      <c r="J360" t="n">
+        <v>876</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12456,11 +12720,19 @@
         <v>-40758.72886841809</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>894</v>
+      </c>
+      <c r="J361" t="n">
+        <v>876</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12489,11 +12761,19 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>893</v>
+      </c>
+      <c r="J362" t="n">
+        <v>876</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12522,11 +12802,19 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>894</v>
+      </c>
+      <c r="J363" t="n">
+        <v>876</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12555,11 +12843,19 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>894</v>
+      </c>
+      <c r="J364" t="n">
+        <v>876</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12594,9 +12890,13 @@
         <v>894</v>
       </c>
       <c r="J365" t="n">
-        <v>894</v>
-      </c>
-      <c r="K365" t="inlineStr"/>
+        <v>876</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12625,15 +12925,17 @@
         <v>-40226.05386841809</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>894</v>
+      </c>
       <c r="J366" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L366" t="n">
@@ -12664,11 +12966,13 @@
         <v>-40226.05386841809</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>891</v>
+      </c>
       <c r="J367" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12709,7 +13013,7 @@
         <v>891</v>
       </c>
       <c r="J368" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12750,7 +13054,7 @@
         <v>896</v>
       </c>
       <c r="J369" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12791,7 +13095,7 @@
         <v>896</v>
       </c>
       <c r="J370" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12832,7 +13136,7 @@
         <v>896</v>
       </c>
       <c r="J371" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12873,7 +13177,7 @@
         <v>901</v>
       </c>
       <c r="J372" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12908,11 +13212,13 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>901</v>
+      </c>
       <c r="J373" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12947,11 +13253,13 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>905</v>
+      </c>
       <c r="J374" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12986,11 +13294,13 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>905</v>
+      </c>
       <c r="J375" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13025,11 +13335,13 @@
         <v>-39502.72676841808</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>905</v>
+      </c>
       <c r="J376" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13064,19 +13376,21 @@
         <v>-39138.78676841808</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>904</v>
+      </c>
       <c r="J377" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L377" t="n">
-        <v>1.007304250559284</v>
+        <v>1</v>
       </c>
       <c r="M377" t="inlineStr"/>
     </row>
@@ -13103,11 +13417,17 @@
         <v>-39138.78676841808</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>876</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13136,11 +13456,17 @@
         <v>-39052.04676841808</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>876</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13169,11 +13495,17 @@
         <v>-39052.04676841808</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>876</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13202,11 +13534,17 @@
         <v>-39016.35076841808</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>876</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13235,11 +13573,17 @@
         <v>-39110.56066841808</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>876</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13268,11 +13612,17 @@
         <v>-39216.43616841808</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>876</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13301,11 +13651,17 @@
         <v>-39145.31466841808</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>876</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13334,15 +13690,17 @@
         <v>-39132.54466841809</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>905</v>
-      </c>
-      <c r="K385" t="inlineStr"/>
+        <v>876</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13371,15 +13729,15 @@
         <v>-39133.54466841809</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L386" t="n">
@@ -13410,15 +13768,15 @@
         <v>-39134.54466841809</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L387" t="n">
@@ -13449,17 +13807,15 @@
         <v>-39404.54466841809</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>903</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L388" t="n">
@@ -13490,13 +13846,11 @@
         <v>-39405.99466841808</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13531,13 +13885,11 @@
         <v>-39352.00466841809</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13572,13 +13924,11 @@
         <v>-39232.51436841809</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13613,13 +13963,11 @@
         <v>-41330.05616841809</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13654,13 +14002,11 @@
         <v>-41330.05616841809</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13695,13 +14041,11 @@
         <v>-41295.04036841809</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13736,13 +14080,11 @@
         <v>-40488.06636841808</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>901</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13777,13 +14119,11 @@
         <v>-36697.80136841808</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13818,13 +14158,11 @@
         <v>-36697.80136841808</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13859,13 +14197,11 @@
         <v>-37675.50006841808</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13900,13 +14236,11 @@
         <v>-37678.05006841809</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13941,13 +14275,11 @@
         <v>-37678.05006841809</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>904</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>905</v>
+        <v>876</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
